--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -20,11 +20,11 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$287</definedName>
     <definedName name="hostsex">'cv_sample'!$AD$1:$AD$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="626">
   <si>
     <t>alias</t>
   </si>
@@ -451,6 +451,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -550,6 +562,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -667,6 +697,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -674,6 +707,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2420,10 +2456,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2464,10 +2500,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +2530,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2514,7 +2550,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2531,7 +2567,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2548,7 +2584,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2565,7 +2601,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2582,7 +2618,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2599,7 +2635,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2616,7 +2652,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2633,7 +2669,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2650,7 +2686,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2664,7 +2700,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2678,7 +2714,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2692,7 +2728,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2706,7 +2742,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2716,8 +2752,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2727,8 +2766,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2738,8 +2780,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2749,8 +2794,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2761,7 +2809,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2772,7 +2820,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2783,7 +2831,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2794,7 +2842,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2805,7 +2853,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2816,7 +2864,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2827,7 +2875,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2838,7 +2886,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2849,7 +2897,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2860,7 +2908,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2871,7 +2919,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2882,7 +2930,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2893,7 +2941,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2904,7 +2952,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2912,7 +2960,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2920,7 +2968,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2928,7 +2976,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2936,7 +2984,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2944,7 +2992,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2952,7 +3000,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2960,7 +3008,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2968,7 +3016,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2976,7 +3024,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2984,176 +3032,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3178,27 +3266,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3221,122 +3309,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3363,234 +3451,234 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -3616,127 +3704,127 @@
   <sheetData>
     <row r="1" spans="13:30">
       <c r="M1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AD1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="13:30">
       <c r="M2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AD2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="13:30">
       <c r="M3" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AD3" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="13:30">
       <c r="M4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AD4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="13:30">
       <c r="M5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD5" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="13:30">
       <c r="M6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AD6" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="13:30">
       <c r="M7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AD7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="13:30">
       <c r="M8" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD8" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="13:30">
       <c r="M9" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AD9" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="13:30">
       <c r="M10" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AD10" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="13:30">
       <c r="M11" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AD11" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="13:30">
       <c r="M12" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AD12" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="13:30">
       <c r="M13" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AD13" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="13:30">
       <c r="M14" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AD14" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="13:30">
       <c r="M15" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AD15" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="13:30">
       <c r="M16" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="AD16" t="s">
         <v>116</v>
@@ -3744,1360 +3832,1360 @@
     </row>
     <row r="17" spans="13:30">
       <c r="M17" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AD17" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="13:30">
       <c r="M18" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="13:30">
       <c r="M19" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="13:30">
       <c r="M20" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="13:30">
       <c r="M21" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="13:30">
       <c r="M22" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="13:30">
       <c r="M23" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="13:30">
       <c r="M24" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="13:30">
       <c r="M25" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="13:30">
       <c r="M26" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="13:30">
       <c r="M27" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="13:30">
       <c r="M28" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="13:30">
       <c r="M29" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="13:30">
       <c r="M30" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="13:30">
       <c r="M31" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="13:30">
       <c r="M32" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="13:13">
       <c r="M33" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="13:13">
       <c r="M34" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="13:13">
       <c r="M35" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="13:13">
       <c r="M36" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="13:13">
       <c r="M37" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="13:13">
       <c r="M38" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="13:13">
       <c r="M39" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="13:13">
       <c r="M40" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="13:13">
       <c r="M41" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="13:13">
       <c r="M42" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="13:13">
       <c r="M43" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="13:13">
       <c r="M44" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="13:13">
       <c r="M45" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="13:13">
       <c r="M46" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="13:13">
       <c r="M47" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="13:13">
       <c r="M48" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="13:13">
       <c r="M49" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="13:13">
       <c r="M50" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="13:13">
       <c r="M51" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="13:13">
       <c r="M53" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="13:13">
       <c r="M55" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="13:13">
       <c r="M56" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="13:13">
       <c r="M57" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="13:13">
       <c r="M58" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="13:13">
       <c r="M68" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="13:13">
       <c r="M70" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="13:13">
       <c r="M71" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="13:13">
       <c r="M72" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="13:13">
       <c r="M73" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="13:13">
       <c r="M74" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="13:13">
       <c r="M75" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="13:13">
       <c r="M76" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="13:13">
       <c r="M77" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="13:13">
       <c r="M78" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="13:13">
       <c r="M79" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="13:13">
       <c r="M80" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="13:13">
       <c r="M81" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="13:13">
       <c r="M82" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="13:13">
       <c r="M83" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="13:13">
       <c r="M84" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="13:13">
       <c r="M85" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="13:13">
       <c r="M86" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="13:13">
       <c r="M87" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="13:13">
       <c r="M88" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="13:13">
       <c r="M89" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="13:13">
       <c r="M90" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="13:13">
       <c r="M91" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="13:13">
       <c r="M92" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="13:13">
       <c r="M93" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="13:13">
       <c r="M94" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="13:13">
       <c r="M95" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="13:13">
       <c r="M96" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="13:13">
       <c r="M97" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="13:13">
       <c r="M98" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="13:13">
       <c r="M99" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="13:13">
       <c r="M100" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="13:13">
       <c r="M101" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="13:13">
       <c r="M102" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="13:13">
       <c r="M103" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="13:13">
       <c r="M104" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="13:13">
       <c r="M105" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="13:13">
       <c r="M106" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="13:13">
       <c r="M107" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="13:13">
       <c r="M108" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="13:13">
       <c r="M109" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="13:13">
       <c r="M110" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="13:13">
       <c r="M111" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="13:13">
       <c r="M112" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="13:13">
       <c r="M113" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="13:13">
       <c r="M114" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="13:13">
       <c r="M115" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="13:13">
       <c r="M116" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="13:13">
       <c r="M117" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="13:13">
       <c r="M118" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="119" spans="13:13">
       <c r="M119" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="13:13">
       <c r="M120" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="13:13">
       <c r="M121" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="13:13">
       <c r="M122" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="13:13">
       <c r="M123" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="13:13">
       <c r="M124" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="13:13">
       <c r="M125" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="13:13">
       <c r="M126" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="13:13">
       <c r="M127" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="13:13">
       <c r="M128" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" spans="13:13">
       <c r="M129" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130" spans="13:13">
       <c r="M130" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="13:13">
       <c r="M131" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="13:13">
       <c r="M132" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="13:13">
       <c r="M133" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134" spans="13:13">
       <c r="M134" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="13:13">
       <c r="M135" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="13:13">
       <c r="M136" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="13:13">
       <c r="M137" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="13:13">
       <c r="M138" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="13:13">
       <c r="M139" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="13:13">
       <c r="M140" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="13:13">
       <c r="M141" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="13:13">
       <c r="M142" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="13:13">
       <c r="M143" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="13:13">
       <c r="M144" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="13:13">
       <c r="M145" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="146" spans="13:13">
       <c r="M146" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="13:13">
       <c r="M147" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="13:13">
       <c r="M148" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="13:13">
       <c r="M149" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="13:13">
       <c r="M150" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="151" spans="13:13">
       <c r="M151" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="152" spans="13:13">
       <c r="M152" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="13:13">
       <c r="M153" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="13:13">
       <c r="M154" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="13:13">
       <c r="M155" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="13:13">
       <c r="M156" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" spans="13:13">
       <c r="M157" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="13:13">
       <c r="M158" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159" spans="13:13">
       <c r="M159" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="13:13">
       <c r="M160" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="13:13">
       <c r="M161" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="13:13">
       <c r="M163" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="13:13">
       <c r="M164" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="13:13">
       <c r="M165" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="13:13">
       <c r="M166" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="13:13">
       <c r="M167" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="13:13">
       <c r="M169" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="13:13">
       <c r="M170" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="171" spans="13:13">
       <c r="M171" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="13:13">
       <c r="M172" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="13:13">
       <c r="M173" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="13:13">
       <c r="M174" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="13:13">
       <c r="M175" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="13:13">
       <c r="M176" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="13:13">
       <c r="M178" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="179" spans="13:13">
       <c r="M179" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" spans="13:13">
       <c r="M181" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="13:13">
       <c r="M182" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" spans="13:13">
       <c r="M183" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="13:13">
       <c r="M184" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="13:13">
       <c r="M185" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="13:13">
       <c r="M186" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="13:13">
       <c r="M187" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="13:13">
       <c r="M188" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="13:13">
       <c r="M189" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="13:13">
       <c r="M190" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="13:13">
       <c r="M191" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="13:13">
       <c r="M192" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="13:13">
       <c r="M193" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="194" spans="13:13">
       <c r="M194" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="13:13">
       <c r="M195" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="13:13">
       <c r="M196" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="198" spans="13:13">
       <c r="M198" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="199" spans="13:13">
       <c r="M199" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="13:13">
       <c r="M200" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="13:13">
       <c r="M201" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="13:13">
       <c r="M202" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="203" spans="13:13">
       <c r="M203" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="204" spans="13:13">
       <c r="M204" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="13:13">
       <c r="M205" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="206" spans="13:13">
       <c r="M206" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="13:13">
       <c r="M207" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="208" spans="13:13">
       <c r="M208" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="209" spans="13:13">
       <c r="M209" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="210" spans="13:13">
       <c r="M210" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="13:13">
       <c r="M211" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="13:13">
       <c r="M212" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="13:13">
       <c r="M213" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="214" spans="13:13">
       <c r="M214" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215" spans="13:13">
       <c r="M215" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="13:13">
       <c r="M216" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="13:13">
       <c r="M217" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="13:13">
       <c r="M218" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="219" spans="13:13">
       <c r="M219" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="220" spans="13:13">
       <c r="M220" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="13:13">
       <c r="M221" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="222" spans="13:13">
       <c r="M222" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="13:13">
       <c r="M223" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="224" spans="13:13">
       <c r="M224" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="225" spans="13:13">
       <c r="M225" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="226" spans="13:13">
       <c r="M226" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="227" spans="13:13">
       <c r="M227" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="228" spans="13:13">
       <c r="M228" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="13:13">
       <c r="M229" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="230" spans="13:13">
       <c r="M230" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="231" spans="13:13">
       <c r="M231" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="232" spans="13:13">
       <c r="M232" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="233" spans="13:13">
       <c r="M233" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="234" spans="13:13">
       <c r="M234" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="235" spans="13:13">
       <c r="M235" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="236" spans="13:13">
       <c r="M236" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="237" spans="13:13">
       <c r="M237" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="238" spans="13:13">
       <c r="M238" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="239" spans="13:13">
       <c r="M239" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="240" spans="13:13">
       <c r="M240" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="241" spans="13:13">
       <c r="M241" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="242" spans="13:13">
       <c r="M242" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="243" spans="13:13">
       <c r="M243" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="244" spans="13:13">
       <c r="M244" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="245" spans="13:13">
       <c r="M245" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="246" spans="13:13">
       <c r="M246" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="247" spans="13:13">
       <c r="M247" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="248" spans="13:13">
       <c r="M248" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="249" spans="13:13">
       <c r="M249" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="250" spans="13:13">
       <c r="M250" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="251" spans="13:13">
       <c r="M251" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="252" spans="13:13">
       <c r="M252" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="253" spans="13:13">
       <c r="M253" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="254" spans="13:13">
       <c r="M254" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="255" spans="13:13">
       <c r="M255" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="256" spans="13:13">
       <c r="M256" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257" spans="13:13">
       <c r="M257" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="258" spans="13:13">
       <c r="M258" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="259" spans="13:13">
       <c r="M259" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="260" spans="13:13">
       <c r="M260" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="13:13">
       <c r="M261" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="262" spans="13:13">
       <c r="M262" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="13:13">
       <c r="M263" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="264" spans="13:13">
       <c r="M264" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="265" spans="13:13">
       <c r="M265" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="13:13">
       <c r="M266" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="13:13">
       <c r="M267" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="13:13">
       <c r="M268" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="13:13">
       <c r="M269" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="270" spans="13:13">
       <c r="M270" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="13:13">
       <c r="M271" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="272" spans="13:13">
       <c r="M272" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="273" spans="13:13">
       <c r="M273" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="13:13">
       <c r="M274" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="275" spans="13:13">
       <c r="M275" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="276" spans="13:13">
       <c r="M276" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="277" spans="13:13">
       <c r="M277" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="278" spans="13:13">
       <c r="M278" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="279" spans="13:13">
       <c r="M279" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="280" spans="13:13">
       <c r="M280" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="13:13">
       <c r="M281" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282" spans="13:13">
       <c r="M282" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283" spans="13:13">
       <c r="M283" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="284" spans="13:13">
       <c r="M284" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="285" spans="13:13">
       <c r="M285" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="286" spans="13:13">
       <c r="M286" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="287" spans="13:13">
       <c r="M287" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -838,8 +838,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Mandatory) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1748,15 +1747,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Optional) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Optional) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1768,22 +1765,19 @@
     <t>trial length</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Length of time from the beginning of the trial until the end of the trial Units: 
-                    </t>
+    <t>(Recommended) Length of time from the beginning of the trial until the end of the trial (Units: years)</t>
   </si>
   <si>
     <t>trial timepoint</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Timepoint of the trial when the sample was collected - length of time after the beginning of the trial Units: 
-                    </t>
+    <t>(Mandatory) Timepoint of the trial when the sample was collected - length of time after the beginning of the trial (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Recommended) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -1837,15 +1831,13 @@
     <t>host length</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The length of subject Units: 
-                    </t>
+    <t>(Optional) The length of subject (Units: mm)</t>
   </si>
   <si>
     <t>host total mass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Total mass of the host at collection, the unit depends on host Units: 
-                    </t>
+    <t>(Recommended) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
   </si>
   <si>
     <t>female</t>
@@ -1881,8 +1873,7 @@
     <t>host gutted mass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total mass of the host after gutting, the unit depends on host Units: 
-                    </t>
+    <t>(Optional) Total mass of the host after gutting, the unit depends on host (Units: kg)</t>
   </si>
   <si>
     <t>host diet</t>
@@ -1900,8 +1891,7 @@
     <t>host diet treatment concentration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of experimental diet treatment/additive to normal host feed as a percentage of the mass of the feed (e.g. 20%) Units: 
-                    </t>
+    <t>(Optional) Concentration of experimental diet treatment/additive to normal host feed as a percentage of the mass of the feed (e.g. 20%) (Units: % mass)</t>
   </si>
   <si>
     <t>host storage container</t>
@@ -1919,8 +1909,7 @@
     <t>host storage container temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Temperature at which the host is kept before sampling Units: 
-                    </t>
+    <t>(Recommended) Temperature at which the host is kept before sampling (Units: °C)</t>
   </si>
 </sst>
 </file>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -100,7 +100,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="625">
   <si>
     <t>alias</t>
   </si>
@@ -1063,12 +1063,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -1907,12 +1907,6 @@
   </si>
   <si>
     <t>(Recommended) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Mandatory) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
 </sst>
 </file>
@@ -3426,7 +3420,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3435,7 +3429,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3550,11 +3544,8 @@
       <c r="AL1" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:38" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -3668,9 +3659,6 @@
       </c>
       <c r="AL2" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="626">
   <si>
     <t>alias</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3437,228 +3440,228 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -3684,127 +3687,127 @@
   <sheetData>
     <row r="1" spans="12:25">
       <c r="L1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="12:25">
       <c r="L2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="12:25">
       <c r="L3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="12:25">
       <c r="L4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="12:25">
       <c r="L5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="12:25">
       <c r="L6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Y6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="12:25">
       <c r="L7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="12:25">
       <c r="L8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="12:25">
       <c r="L9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="12:25">
       <c r="L10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="12:25">
       <c r="L11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y11" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="12:25">
       <c r="L12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="12:25">
       <c r="L13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="12:25">
       <c r="L14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y14" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="12:25">
       <c r="L15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y15" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="12:25">
       <c r="L16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y16" t="s">
         <v>116</v>
@@ -3812,1365 +3815,1365 @@
     </row>
     <row r="17" spans="12:25">
       <c r="L17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="12:25">
       <c r="L18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="12:25">
       <c r="L19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="12:25">
       <c r="L20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="12:25">
       <c r="L21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="12:25">
       <c r="L22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="12:25">
       <c r="L23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="12:25">
       <c r="L24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="12:25">
       <c r="L25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="12:25">
       <c r="L26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="12:25">
       <c r="L27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="12:25">
       <c r="L28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="12:25">
       <c r="L29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="12:25">
       <c r="L30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="12:25">
       <c r="L31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="12:25">
       <c r="L32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="12:12">
       <c r="L33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="12:12">
       <c r="L34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="12:12">
       <c r="L35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="12:12">
       <c r="L36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="12:12">
       <c r="L37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="12:12">
       <c r="L38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="12:12">
       <c r="L39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="12:12">
       <c r="L40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="12:12">
       <c r="L41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="12:12">
       <c r="L42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="12:12">
       <c r="L43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="12:12">
       <c r="L44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="12:12">
       <c r="L45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="12:12">
       <c r="L46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="12:12">
       <c r="L47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="12:12">
       <c r="L48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="12:12">
       <c r="L49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="12:12">
       <c r="L50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="12:12">
       <c r="L51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="12:12">
       <c r="L52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="12:12">
       <c r="L53" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="12:12">
       <c r="L54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="12:12">
       <c r="L55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="12:12">
       <c r="L56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="12:12">
       <c r="L57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="12:12">
       <c r="L58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="12:12">
       <c r="L59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="12:12">
       <c r="L60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="12:12">
       <c r="L61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="12:12">
       <c r="L62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="12:12">
       <c r="L63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="12:12">
       <c r="L64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="12:12">
       <c r="L65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="12:12">
       <c r="L66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="12:12">
       <c r="L67" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="12:12">
       <c r="L68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="12:12">
       <c r="L69" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="12:12">
       <c r="L70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="12:12">
       <c r="L71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="12:12">
       <c r="L72" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="12:12">
       <c r="L73" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="12:12">
       <c r="L74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="12:12">
       <c r="L75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="12:12">
       <c r="L76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="12:12">
       <c r="L77" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="12:12">
       <c r="L78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="12:12">
       <c r="L79" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="12:12">
       <c r="L80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="12:12">
       <c r="L81" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="12:12">
       <c r="L82" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="12:12">
       <c r="L83" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="12:12">
       <c r="L84" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="12:12">
       <c r="L85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="12:12">
       <c r="L86" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="12:12">
       <c r="L87" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="12:12">
       <c r="L88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="12:12">
       <c r="L89" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="12:12">
       <c r="L90" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="12:12">
       <c r="L91" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="12:12">
       <c r="L92" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="12:12">
       <c r="L93" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="12:12">
       <c r="L94" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="12:12">
       <c r="L95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="12:12">
       <c r="L96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="12:12">
       <c r="L97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="12:12">
       <c r="L98" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="12:12">
       <c r="L99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="12:12">
       <c r="L100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="12:12">
       <c r="L101" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="12:12">
       <c r="L102" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="12:12">
       <c r="L103" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="12:12">
       <c r="L104" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="12:12">
       <c r="L105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="12:12">
       <c r="L106" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="12:12">
       <c r="L107" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="12:12">
       <c r="L108" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="12:12">
       <c r="L109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="110" spans="12:12">
       <c r="L110" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="12:12">
       <c r="L111" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="12:12">
       <c r="L112" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="12:12">
       <c r="L113" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="114" spans="12:12">
       <c r="L114" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="12:12">
       <c r="L115" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="12:12">
       <c r="L116" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="12:12">
       <c r="L117" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="12:12">
       <c r="L118" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="12:12">
       <c r="L119" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" spans="12:12">
       <c r="L120" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="12:12">
       <c r="L121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="12:12">
       <c r="L122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="12:12">
       <c r="L123" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="12:12">
       <c r="L124" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="12:12">
       <c r="L125" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="12:12">
       <c r="L126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="12:12">
       <c r="L127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="12:12">
       <c r="L128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="12:12">
       <c r="L129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="12:12">
       <c r="L130" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="12:12">
       <c r="L131" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="12:12">
       <c r="L132" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="12:12">
       <c r="L133" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="134" spans="12:12">
       <c r="L134" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135" spans="12:12">
       <c r="L135" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="12:12">
       <c r="L136" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="137" spans="12:12">
       <c r="L137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="12:12">
       <c r="L138" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="12:12">
       <c r="L139" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="12:12">
       <c r="L140" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="12:12">
       <c r="L141" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="12:12">
       <c r="L142" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="143" spans="12:12">
       <c r="L143" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="12:12">
       <c r="L144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145" spans="12:12">
       <c r="L145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="12:12">
       <c r="L146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="12:12">
       <c r="L147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="12:12">
       <c r="L148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="12:12">
       <c r="L149" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="150" spans="12:12">
       <c r="L150" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" spans="12:12">
       <c r="L151" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="12:12">
       <c r="L152" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" spans="12:12">
       <c r="L153" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" spans="12:12">
       <c r="L154" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="12:12">
       <c r="L155" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="12:12">
       <c r="L156" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="12:12">
       <c r="L157" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" spans="12:12">
       <c r="L158" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" spans="12:12">
       <c r="L159" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="160" spans="12:12">
       <c r="L160" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="12:12">
       <c r="L161" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="162" spans="12:12">
       <c r="L162" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="163" spans="12:12">
       <c r="L163" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="12:12">
       <c r="L164" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="12:12">
       <c r="L165" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="12:12">
       <c r="L166" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="12:12">
       <c r="L167" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="12:12">
       <c r="L168" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="169" spans="12:12">
       <c r="L169" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="170" spans="12:12">
       <c r="L170" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="12:12">
       <c r="L171" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="172" spans="12:12">
       <c r="L172" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="12:12">
       <c r="L173" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="12:12">
       <c r="L174" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="12:12">
       <c r="L175" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="12:12">
       <c r="L176" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177" spans="12:12">
       <c r="L177" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="12:12">
       <c r="L178" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="179" spans="12:12">
       <c r="L179" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="12:12">
       <c r="L180" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="181" spans="12:12">
       <c r="L181" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" spans="12:12">
       <c r="L182" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="183" spans="12:12">
       <c r="L183" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184" spans="12:12">
       <c r="L184" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="185" spans="12:12">
       <c r="L185" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186" spans="12:12">
       <c r="L186" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="12:12">
       <c r="L187" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="188" spans="12:12">
       <c r="L188" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="189" spans="12:12">
       <c r="L189" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="190" spans="12:12">
       <c r="L190" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="191" spans="12:12">
       <c r="L191" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="12:12">
       <c r="L192" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="193" spans="12:12">
       <c r="L193" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="12:12">
       <c r="L194" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="12:12">
       <c r="L195" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="196" spans="12:12">
       <c r="L196" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="12:12">
       <c r="L197" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="12:12">
       <c r="L198" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="12:12">
       <c r="L199" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="200" spans="12:12">
       <c r="L200" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201" spans="12:12">
       <c r="L201" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="202" spans="12:12">
       <c r="L202" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="12:12">
       <c r="L203" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="204" spans="12:12">
       <c r="L204" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="12:12">
       <c r="L205" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="12:12">
       <c r="L206" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="12:12">
       <c r="L207" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="208" spans="12:12">
       <c r="L208" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="209" spans="12:12">
       <c r="L209" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="210" spans="12:12">
       <c r="L210" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="211" spans="12:12">
       <c r="L211" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="12:12">
       <c r="L212" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="213" spans="12:12">
       <c r="L213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="12:12">
       <c r="L214" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="215" spans="12:12">
       <c r="L215" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="216" spans="12:12">
       <c r="L216" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="217" spans="12:12">
       <c r="L217" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="12:12">
       <c r="L218" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="12:12">
       <c r="L219" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="220" spans="12:12">
       <c r="L220" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="12:12">
       <c r="L221" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="12:12">
       <c r="L222" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="223" spans="12:12">
       <c r="L223" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="224" spans="12:12">
       <c r="L224" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="225" spans="12:12">
       <c r="L225" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="226" spans="12:12">
       <c r="L226" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="12:12">
       <c r="L227" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="12:12">
       <c r="L228" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="229" spans="12:12">
       <c r="L229" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="230" spans="12:12">
       <c r="L230" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="231" spans="12:12">
       <c r="L231" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="232" spans="12:12">
       <c r="L232" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="233" spans="12:12">
       <c r="L233" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="234" spans="12:12">
       <c r="L234" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="235" spans="12:12">
       <c r="L235" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="236" spans="12:12">
       <c r="L236" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="237" spans="12:12">
       <c r="L237" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="238" spans="12:12">
       <c r="L238" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="239" spans="12:12">
       <c r="L239" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="240" spans="12:12">
       <c r="L240" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="241" spans="12:12">
       <c r="L241" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="242" spans="12:12">
       <c r="L242" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="243" spans="12:12">
       <c r="L243" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="244" spans="12:12">
       <c r="L244" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="245" spans="12:12">
       <c r="L245" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="246" spans="12:12">
       <c r="L246" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="247" spans="12:12">
       <c r="L247" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="248" spans="12:12">
       <c r="L248" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="249" spans="12:12">
       <c r="L249" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="250" spans="12:12">
       <c r="L250" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="251" spans="12:12">
       <c r="L251" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="252" spans="12:12">
       <c r="L252" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="253" spans="12:12">
       <c r="L253" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="254" spans="12:12">
       <c r="L254" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="255" spans="12:12">
       <c r="L255" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="256" spans="12:12">
       <c r="L256" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="257" spans="12:12">
       <c r="L257" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="258" spans="12:12">
       <c r="L258" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="259" spans="12:12">
       <c r="L259" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="260" spans="12:12">
       <c r="L260" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="261" spans="12:12">
       <c r="L261" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="262" spans="12:12">
       <c r="L262" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="263" spans="12:12">
       <c r="L263" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="264" spans="12:12">
       <c r="L264" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="265" spans="12:12">
       <c r="L265" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="266" spans="12:12">
       <c r="L266" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="267" spans="12:12">
       <c r="L267" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="268" spans="12:12">
       <c r="L268" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="12:12">
       <c r="L269" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="12:12">
       <c r="L270" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="271" spans="12:12">
       <c r="L271" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="12:12">
       <c r="L272" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="273" spans="12:12">
       <c r="L273" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="274" spans="12:12">
       <c r="L274" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="12:12">
       <c r="L275" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="276" spans="12:12">
       <c r="L276" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="277" spans="12:12">
       <c r="L277" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="278" spans="12:12">
       <c r="L278" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="279" spans="12:12">
       <c r="L279" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280" spans="12:12">
       <c r="L280" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="281" spans="12:12">
       <c r="L281" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="282" spans="12:12">
       <c r="L282" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="283" spans="12:12">
       <c r="L283" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="284" spans="12:12">
       <c r="L284" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="285" spans="12:12">
       <c r="L285" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="286" spans="12:12">
       <c r="L286" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="287" spans="12:12">
       <c r="L287" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="288" spans="12:12">
       <c r="L288" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -112,7 +112,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -130,7 +130,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$L$1:$L$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
     <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="627">
   <si>
     <t>alias</t>
   </si>
@@ -874,6 +874,36 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>trial length</t>
+  </si>
+  <si>
+    <t>(Recommended) Length of time from the beginning of the trial until the end of the trial (Units: years)</t>
+  </si>
+  <si>
+    <t>trial timepoint</t>
+  </si>
+  <si>
+    <t>(Mandatory) Timepoint of the trial when the sample was collected - length of time after the beginning of the trial (Units: years)</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1702,6 +1732,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1742,36 +1775,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>trial length</t>
-  </si>
-  <si>
-    <t>(Recommended) Length of time from the beginning of the trial until the end of the trial (Units: years)</t>
-  </si>
-  <si>
-    <t>trial timepoint</t>
-  </si>
-  <si>
-    <t>(Mandatory) Timepoint of the trial when the sample was collected - length of time after the beginning of the trial (Units: years)</t>
   </si>
   <si>
     <t>host disease status</t>
@@ -3467,85 +3470,85 @@
         <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>568</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>570</v>
+        <v>282</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>572</v>
+        <v>284</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>574</v>
+        <v>286</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>576</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="150" customHeight="1">
@@ -3583,90 +3586,90 @@
         <v>279</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>569</v>
+        <v>281</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>571</v>
+        <v>283</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>573</v>
+        <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>575</v>
+        <v>287</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>577</v>
+        <v>289</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
@@ -3679,1501 +3682,1506 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="L1:Y288"/>
+  <dimension ref="Q1:Y289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="12:25">
-      <c r="L1" t="s">
-        <v>280</v>
+    <row r="1" spans="17:25">
+      <c r="Q1" t="s">
+        <v>290</v>
       </c>
       <c r="Y1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="2" spans="12:25">
-      <c r="L2" t="s">
-        <v>281</v>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="17:25">
+      <c r="Q2" t="s">
+        <v>291</v>
       </c>
       <c r="Y2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="12:25">
-      <c r="L3" t="s">
-        <v>282</v>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="17:25">
+      <c r="Q3" t="s">
+        <v>292</v>
       </c>
       <c r="Y3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="4" spans="12:25">
-      <c r="L4" t="s">
-        <v>283</v>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="17:25">
+      <c r="Q4" t="s">
+        <v>293</v>
       </c>
       <c r="Y4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="5" spans="12:25">
-      <c r="L5" t="s">
-        <v>284</v>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="17:25">
+      <c r="Q5" t="s">
+        <v>294</v>
       </c>
       <c r="Y5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="6" spans="12:25">
-      <c r="L6" t="s">
-        <v>285</v>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="17:25">
+      <c r="Q6" t="s">
+        <v>295</v>
       </c>
       <c r="Y6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="7" spans="12:25">
-      <c r="L7" t="s">
-        <v>286</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" spans="17:25">
+      <c r="Q7" t="s">
+        <v>296</v>
       </c>
       <c r="Y7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="8" spans="12:25">
-      <c r="L8" t="s">
-        <v>287</v>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="17:25">
+      <c r="Q8" t="s">
+        <v>297</v>
       </c>
       <c r="Y8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="12:25">
-      <c r="L9" t="s">
-        <v>288</v>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="9" spans="17:25">
+      <c r="Q9" t="s">
+        <v>298</v>
       </c>
       <c r="Y9" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="10" spans="12:25">
-      <c r="L10" t="s">
-        <v>289</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="17:25">
+      <c r="Q10" t="s">
+        <v>299</v>
       </c>
       <c r="Y10" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="11" spans="12:25">
-      <c r="L11" t="s">
-        <v>290</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="17:25">
+      <c r="Q11" t="s">
+        <v>300</v>
       </c>
       <c r="Y11" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="12" spans="12:25">
-      <c r="L12" t="s">
-        <v>291</v>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="17:25">
+      <c r="Q12" t="s">
+        <v>301</v>
       </c>
       <c r="Y12" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="13" spans="12:25">
-      <c r="L13" t="s">
-        <v>292</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="17:25">
+      <c r="Q13" t="s">
+        <v>302</v>
       </c>
       <c r="Y13" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="14" spans="12:25">
-      <c r="L14" t="s">
-        <v>293</v>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="17:25">
+      <c r="Q14" t="s">
+        <v>303</v>
       </c>
       <c r="Y14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="15" spans="12:25">
-      <c r="L15" t="s">
-        <v>294</v>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="17:25">
+      <c r="Q15" t="s">
+        <v>304</v>
       </c>
       <c r="Y15" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="16" spans="12:25">
-      <c r="L16" t="s">
-        <v>295</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="16" spans="17:25">
+      <c r="Q16" t="s">
+        <v>305</v>
       </c>
       <c r="Y16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="12:25">
-      <c r="L17" t="s">
-        <v>296</v>
+    <row r="17" spans="17:25">
+      <c r="Q17" t="s">
+        <v>306</v>
       </c>
       <c r="Y17" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18" spans="17:25">
+      <c r="Q18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="17:25">
+      <c r="Q19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="17:25">
+      <c r="Q20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="17:25">
+      <c r="Q21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="17:25">
+      <c r="Q22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="17:25">
+      <c r="Q23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="17:25">
+      <c r="Q24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="17:25">
+      <c r="Q25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="17:25">
+      <c r="Q26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="17:25">
+      <c r="Q27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="17:25">
+      <c r="Q28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="17:25">
+      <c r="Q29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="17:25">
+      <c r="Q30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="17:25">
+      <c r="Q31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="17:25">
+      <c r="Q32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17">
+      <c r="Q33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="17:17">
+      <c r="Q34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="17:17">
+      <c r="Q35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="17:17">
+      <c r="Q36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="17:17">
+      <c r="Q37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="17:17">
+      <c r="Q38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="17:17">
+      <c r="Q39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="17:17">
+      <c r="Q40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="17:17">
+      <c r="Q41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="17:17">
+      <c r="Q42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="17:17">
+      <c r="Q43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="17:17">
+      <c r="Q44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="17:17">
+      <c r="Q45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="17:17">
+      <c r="Q46" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="17:17">
+      <c r="Q47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="17:17">
+      <c r="Q48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="17:17">
+      <c r="Q49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="17:17">
+      <c r="Q50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="17:17">
+      <c r="Q51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="17:17">
+      <c r="Q52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="17:17">
+      <c r="Q53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="17:17">
+      <c r="Q54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="17:17">
+      <c r="Q55" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="17:17">
+      <c r="Q56" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="17:17">
+      <c r="Q57" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" spans="17:17">
+      <c r="Q58" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="17:17">
+      <c r="Q59" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="17:17">
+      <c r="Q60" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="17:17">
+      <c r="Q61" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="17:17">
+      <c r="Q62" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="17:17">
+      <c r="Q63" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="17:17">
+      <c r="Q64" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="17:17">
+      <c r="Q65" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66" spans="17:17">
+      <c r="Q66" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="17:17">
+      <c r="Q67" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="17:17">
+      <c r="Q68" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="17:17">
+      <c r="Q69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="17:17">
+      <c r="Q70" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="17:17">
+      <c r="Q71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="17:17">
+      <c r="Q72" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="17:17">
+      <c r="Q73" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="17:17">
+      <c r="Q74" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="17:17">
+      <c r="Q75" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="76" spans="17:17">
+      <c r="Q76" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="17:17">
+      <c r="Q77" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="17:17">
+      <c r="Q78" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="79" spans="17:17">
+      <c r="Q79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="17:17">
+      <c r="Q80" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="17:17">
+      <c r="Q81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="17:17">
+      <c r="Q82" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="83" spans="17:17">
+      <c r="Q83" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="17:17">
+      <c r="Q84" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="17:17">
+      <c r="Q85" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="17:17">
+      <c r="Q86" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="87" spans="17:17">
+      <c r="Q87" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="88" spans="17:17">
+      <c r="Q88" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="89" spans="17:17">
+      <c r="Q89" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="90" spans="17:17">
+      <c r="Q90" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="17:17">
+      <c r="Q91" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="17:17">
+      <c r="Q92" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="17:17">
+      <c r="Q93" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="94" spans="17:17">
+      <c r="Q94" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="95" spans="17:17">
+      <c r="Q95" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96" spans="17:17">
+      <c r="Q96" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="97" spans="17:17">
+      <c r="Q97" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="98" spans="17:17">
+      <c r="Q98" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="99" spans="17:17">
+      <c r="Q99" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="100" spans="17:17">
+      <c r="Q100" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" spans="17:17">
+      <c r="Q101" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="102" spans="17:17">
+      <c r="Q102" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="17:17">
+      <c r="Q103" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="104" spans="17:17">
+      <c r="Q104" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="105" spans="17:17">
+      <c r="Q105" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="17:17">
+      <c r="Q106" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="107" spans="17:17">
+      <c r="Q107" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="108" spans="17:17">
+      <c r="Q108" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="17:17">
+      <c r="Q109" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="17:17">
+      <c r="Q110" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="111" spans="17:17">
+      <c r="Q111" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="17:17">
+      <c r="Q112" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="113" spans="17:17">
+      <c r="Q113" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="114" spans="17:17">
+      <c r="Q114" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="115" spans="17:17">
+      <c r="Q115" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="116" spans="17:17">
+      <c r="Q116" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="117" spans="17:17">
+      <c r="Q117" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="118" spans="17:17">
+      <c r="Q118" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="119" spans="17:17">
+      <c r="Q119" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="120" spans="17:17">
+      <c r="Q120" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="121" spans="17:17">
+      <c r="Q121" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="122" spans="17:17">
+      <c r="Q122" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="123" spans="17:17">
+      <c r="Q123" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="17:17">
+      <c r="Q124" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="125" spans="17:17">
+      <c r="Q125" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="126" spans="17:17">
+      <c r="Q126" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="127" spans="17:17">
+      <c r="Q127" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="128" spans="17:17">
+      <c r="Q128" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="129" spans="17:17">
+      <c r="Q129" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="130" spans="17:17">
+      <c r="Q130" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="131" spans="17:17">
+      <c r="Q131" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="132" spans="17:17">
+      <c r="Q132" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="133" spans="17:17">
+      <c r="Q133" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" spans="17:17">
+      <c r="Q134" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="135" spans="17:17">
+      <c r="Q135" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="136" spans="17:17">
+      <c r="Q136" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="137" spans="17:17">
+      <c r="Q137" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="138" spans="17:17">
+      <c r="Q138" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="139" spans="17:17">
+      <c r="Q139" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="140" spans="17:17">
+      <c r="Q140" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="141" spans="17:17">
+      <c r="Q141" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="142" spans="17:17">
+      <c r="Q142" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="143" spans="17:17">
+      <c r="Q143" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="144" spans="17:17">
+      <c r="Q144" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="145" spans="17:17">
+      <c r="Q145" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="146" spans="17:17">
+      <c r="Q146" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="147" spans="17:17">
+      <c r="Q147" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="148" spans="17:17">
+      <c r="Q148" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="149" spans="17:17">
+      <c r="Q149" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="150" spans="17:17">
+      <c r="Q150" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="151" spans="17:17">
+      <c r="Q151" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="152" spans="17:17">
+      <c r="Q152" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="153" spans="17:17">
+      <c r="Q153" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="154" spans="17:17">
+      <c r="Q154" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="155" spans="17:17">
+      <c r="Q155" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="156" spans="17:17">
+      <c r="Q156" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="157" spans="17:17">
+      <c r="Q157" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="158" spans="17:17">
+      <c r="Q158" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="159" spans="17:17">
+      <c r="Q159" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="160" spans="17:17">
+      <c r="Q160" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="161" spans="17:17">
+      <c r="Q161" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="162" spans="17:17">
+      <c r="Q162" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="163" spans="17:17">
+      <c r="Q163" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="164" spans="17:17">
+      <c r="Q164" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="165" spans="17:17">
+      <c r="Q165" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="166" spans="17:17">
+      <c r="Q166" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="167" spans="17:17">
+      <c r="Q167" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="168" spans="17:17">
+      <c r="Q168" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="169" spans="17:17">
+      <c r="Q169" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="170" spans="17:17">
+      <c r="Q170" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="171" spans="17:17">
+      <c r="Q171" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="172" spans="17:17">
+      <c r="Q172" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="173" spans="17:17">
+      <c r="Q173" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="174" spans="17:17">
+      <c r="Q174" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="175" spans="17:17">
+      <c r="Q175" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="176" spans="17:17">
+      <c r="Q176" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="177" spans="17:17">
+      <c r="Q177" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="178" spans="17:17">
+      <c r="Q178" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="179" spans="17:17">
+      <c r="Q179" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="180" spans="17:17">
+      <c r="Q180" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="181" spans="17:17">
+      <c r="Q181" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="182" spans="17:17">
+      <c r="Q182" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="183" spans="17:17">
+      <c r="Q183" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="184" spans="17:17">
+      <c r="Q184" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="185" spans="17:17">
+      <c r="Q185" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="186" spans="17:17">
+      <c r="Q186" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="187" spans="17:17">
+      <c r="Q187" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="188" spans="17:17">
+      <c r="Q188" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="189" spans="17:17">
+      <c r="Q189" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="190" spans="17:17">
+      <c r="Q190" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="191" spans="17:17">
+      <c r="Q191" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="192" spans="17:17">
+      <c r="Q192" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="193" spans="17:17">
+      <c r="Q193" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="194" spans="17:17">
+      <c r="Q194" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="195" spans="17:17">
+      <c r="Q195" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="196" spans="17:17">
+      <c r="Q196" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="197" spans="17:17">
+      <c r="Q197" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="198" spans="17:17">
+      <c r="Q198" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="199" spans="17:17">
+      <c r="Q199" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="200" spans="17:17">
+      <c r="Q200" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="201" spans="17:17">
+      <c r="Q201" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="202" spans="17:17">
+      <c r="Q202" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="203" spans="17:17">
+      <c r="Q203" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="204" spans="17:17">
+      <c r="Q204" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="205" spans="17:17">
+      <c r="Q205" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="206" spans="17:17">
+      <c r="Q206" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="207" spans="17:17">
+      <c r="Q207" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="208" spans="17:17">
+      <c r="Q208" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="209" spans="17:17">
+      <c r="Q209" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="210" spans="17:17">
+      <c r="Q210" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="211" spans="17:17">
+      <c r="Q211" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="212" spans="17:17">
+      <c r="Q212" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="213" spans="17:17">
+      <c r="Q213" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="214" spans="17:17">
+      <c r="Q214" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="215" spans="17:17">
+      <c r="Q215" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="216" spans="17:17">
+      <c r="Q216" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="217" spans="17:17">
+      <c r="Q217" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="218" spans="17:17">
+      <c r="Q218" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="219" spans="17:17">
+      <c r="Q219" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="220" spans="17:17">
+      <c r="Q220" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="221" spans="17:17">
+      <c r="Q221" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="222" spans="17:17">
+      <c r="Q222" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="223" spans="17:17">
+      <c r="Q223" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="224" spans="17:17">
+      <c r="Q224" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="225" spans="17:17">
+      <c r="Q225" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="226" spans="17:17">
+      <c r="Q226" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="227" spans="17:17">
+      <c r="Q227" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="228" spans="17:17">
+      <c r="Q228" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="229" spans="17:17">
+      <c r="Q229" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="230" spans="17:17">
+      <c r="Q230" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="231" spans="17:17">
+      <c r="Q231" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="232" spans="17:17">
+      <c r="Q232" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="233" spans="17:17">
+      <c r="Q233" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="234" spans="17:17">
+      <c r="Q234" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="235" spans="17:17">
+      <c r="Q235" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="236" spans="17:17">
+      <c r="Q236" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="237" spans="17:17">
+      <c r="Q237" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="238" spans="17:17">
+      <c r="Q238" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="239" spans="17:17">
+      <c r="Q239" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="240" spans="17:17">
+      <c r="Q240" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="241" spans="17:17">
+      <c r="Q241" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="242" spans="17:17">
+      <c r="Q242" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="243" spans="17:17">
+      <c r="Q243" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="244" spans="17:17">
+      <c r="Q244" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="245" spans="17:17">
+      <c r="Q245" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="246" spans="17:17">
+      <c r="Q246" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="247" spans="17:17">
+      <c r="Q247" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="248" spans="17:17">
+      <c r="Q248" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="249" spans="17:17">
+      <c r="Q249" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="250" spans="17:17">
+      <c r="Q250" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="251" spans="17:17">
+      <c r="Q251" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="252" spans="17:17">
+      <c r="Q252" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="253" spans="17:17">
+      <c r="Q253" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="254" spans="17:17">
+      <c r="Q254" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="255" spans="17:17">
+      <c r="Q255" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="256" spans="17:17">
+      <c r="Q256" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="257" spans="17:17">
+      <c r="Q257" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="258" spans="17:17">
+      <c r="Q258" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="259" spans="17:17">
+      <c r="Q259" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="260" spans="17:17">
+      <c r="Q260" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="261" spans="17:17">
+      <c r="Q261" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="262" spans="17:17">
+      <c r="Q262" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="263" spans="17:17">
+      <c r="Q263" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="264" spans="17:17">
+      <c r="Q264" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="265" spans="17:17">
+      <c r="Q265" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="266" spans="17:17">
+      <c r="Q266" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="267" spans="17:17">
+      <c r="Q267" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="268" spans="17:17">
+      <c r="Q268" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="269" spans="17:17">
+      <c r="Q269" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="270" spans="17:17">
+      <c r="Q270" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="271" spans="17:17">
+      <c r="Q271" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="272" spans="17:17">
+      <c r="Q272" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="273" spans="17:17">
+      <c r="Q273" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="274" spans="17:17">
+      <c r="Q274" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="275" spans="17:17">
+      <c r="Q275" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="276" spans="17:17">
+      <c r="Q276" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="277" spans="17:17">
+      <c r="Q277" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="278" spans="17:17">
+      <c r="Q278" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="12:25">
-      <c r="L18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="12:25">
-      <c r="L19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="12:25">
-      <c r="L20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="12:25">
-      <c r="L21" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="12:25">
-      <c r="L22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="12:25">
-      <c r="L23" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="12:25">
-      <c r="L24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="12:25">
-      <c r="L25" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="12:25">
-      <c r="L26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="12:25">
-      <c r="L27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="12:25">
-      <c r="L28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="12:25">
-      <c r="L29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="12:25">
-      <c r="L30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="12:25">
-      <c r="L31" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="12:25">
-      <c r="L32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12">
-      <c r="L33" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="12:12">
-      <c r="L34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="12:12">
-      <c r="L35" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="36" spans="12:12">
-      <c r="L36" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="12:12">
-      <c r="L37" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="38" spans="12:12">
-      <c r="L38" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="39" spans="12:12">
-      <c r="L39" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="12:12">
-      <c r="L40" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="12:12">
-      <c r="L41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="42" spans="12:12">
-      <c r="L42" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="43" spans="12:12">
-      <c r="L43" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="12:12">
-      <c r="L44" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="12:12">
-      <c r="L45" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="12:12">
-      <c r="L46" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="12:12">
-      <c r="L47" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="12:12">
-      <c r="L48" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="12:12">
-      <c r="L49" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" spans="12:12">
-      <c r="L50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" spans="12:12">
-      <c r="L51" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="52" spans="12:12">
-      <c r="L52" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="53" spans="12:12">
-      <c r="L53" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="54" spans="12:12">
-      <c r="L54" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="12:12">
-      <c r="L55" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="12:12">
-      <c r="L56" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="12:12">
-      <c r="L57" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="12:12">
-      <c r="L58" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="12:12">
-      <c r="L59" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="60" spans="12:12">
-      <c r="L60" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="61" spans="12:12">
-      <c r="L61" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="62" spans="12:12">
-      <c r="L62" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="63" spans="12:12">
-      <c r="L63" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="64" spans="12:12">
-      <c r="L64" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="65" spans="12:12">
-      <c r="L65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="66" spans="12:12">
-      <c r="L66" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="67" spans="12:12">
-      <c r="L67" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="68" spans="12:12">
-      <c r="L68" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="69" spans="12:12">
-      <c r="L69" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="70" spans="12:12">
-      <c r="L70" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="71" spans="12:12">
-      <c r="L71" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="72" spans="12:12">
-      <c r="L72" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="73" spans="12:12">
-      <c r="L73" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="74" spans="12:12">
-      <c r="L74" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="75" spans="12:12">
-      <c r="L75" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="76" spans="12:12">
-      <c r="L76" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="77" spans="12:12">
-      <c r="L77" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="78" spans="12:12">
-      <c r="L78" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="79" spans="12:12">
-      <c r="L79" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="80" spans="12:12">
-      <c r="L80" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="81" spans="12:12">
-      <c r="L81" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="82" spans="12:12">
-      <c r="L82" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="83" spans="12:12">
-      <c r="L83" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="84" spans="12:12">
-      <c r="L84" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="85" spans="12:12">
-      <c r="L85" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="86" spans="12:12">
-      <c r="L86" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="87" spans="12:12">
-      <c r="L87" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="88" spans="12:12">
-      <c r="L88" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="89" spans="12:12">
-      <c r="L89" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="90" spans="12:12">
-      <c r="L90" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="91" spans="12:12">
-      <c r="L91" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="92" spans="12:12">
-      <c r="L92" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="93" spans="12:12">
-      <c r="L93" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="94" spans="12:12">
-      <c r="L94" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="95" spans="12:12">
-      <c r="L95" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="96" spans="12:12">
-      <c r="L96" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="97" spans="12:12">
-      <c r="L97" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="98" spans="12:12">
-      <c r="L98" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="99" spans="12:12">
-      <c r="L99" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="100" spans="12:12">
-      <c r="L100" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="101" spans="12:12">
-      <c r="L101" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="102" spans="12:12">
-      <c r="L102" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="103" spans="12:12">
-      <c r="L103" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="104" spans="12:12">
-      <c r="L104" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="105" spans="12:12">
-      <c r="L105" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="106" spans="12:12">
-      <c r="L106" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="107" spans="12:12">
-      <c r="L107" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="108" spans="12:12">
-      <c r="L108" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="109" spans="12:12">
-      <c r="L109" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="110" spans="12:12">
-      <c r="L110" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="111" spans="12:12">
-      <c r="L111" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="112" spans="12:12">
-      <c r="L112" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="113" spans="12:12">
-      <c r="L113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="114" spans="12:12">
-      <c r="L114" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="115" spans="12:12">
-      <c r="L115" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="116" spans="12:12">
-      <c r="L116" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="117" spans="12:12">
-      <c r="L117" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="118" spans="12:12">
-      <c r="L118" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="119" spans="12:12">
-      <c r="L119" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="120" spans="12:12">
-      <c r="L120" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="121" spans="12:12">
-      <c r="L121" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="122" spans="12:12">
-      <c r="L122" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="123" spans="12:12">
-      <c r="L123" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="124" spans="12:12">
-      <c r="L124" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="125" spans="12:12">
-      <c r="L125" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="126" spans="12:12">
-      <c r="L126" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="127" spans="12:12">
-      <c r="L127" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="128" spans="12:12">
-      <c r="L128" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="129" spans="12:12">
-      <c r="L129" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="130" spans="12:12">
-      <c r="L130" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="131" spans="12:12">
-      <c r="L131" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="132" spans="12:12">
-      <c r="L132" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="133" spans="12:12">
-      <c r="L133" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="134" spans="12:12">
-      <c r="L134" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="135" spans="12:12">
-      <c r="L135" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="136" spans="12:12">
-      <c r="L136" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="137" spans="12:12">
-      <c r="L137" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="138" spans="12:12">
-      <c r="L138" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="139" spans="12:12">
-      <c r="L139" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="140" spans="12:12">
-      <c r="L140" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="141" spans="12:12">
-      <c r="L141" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="142" spans="12:12">
-      <c r="L142" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="143" spans="12:12">
-      <c r="L143" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="144" spans="12:12">
-      <c r="L144" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="145" spans="12:12">
-      <c r="L145" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="146" spans="12:12">
-      <c r="L146" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="147" spans="12:12">
-      <c r="L147" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="148" spans="12:12">
-      <c r="L148" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="149" spans="12:12">
-      <c r="L149" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="150" spans="12:12">
-      <c r="L150" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="151" spans="12:12">
-      <c r="L151" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="152" spans="12:12">
-      <c r="L152" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="153" spans="12:12">
-      <c r="L153" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="154" spans="12:12">
-      <c r="L154" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="155" spans="12:12">
-      <c r="L155" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="156" spans="12:12">
-      <c r="L156" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="157" spans="12:12">
-      <c r="L157" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="158" spans="12:12">
-      <c r="L158" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="159" spans="12:12">
-      <c r="L159" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="160" spans="12:12">
-      <c r="L160" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="161" spans="12:12">
-      <c r="L161" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="162" spans="12:12">
-      <c r="L162" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="163" spans="12:12">
-      <c r="L163" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="164" spans="12:12">
-      <c r="L164" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="165" spans="12:12">
-      <c r="L165" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="166" spans="12:12">
-      <c r="L166" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="167" spans="12:12">
-      <c r="L167" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="168" spans="12:12">
-      <c r="L168" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="169" spans="12:12">
-      <c r="L169" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="170" spans="12:12">
-      <c r="L170" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="171" spans="12:12">
-      <c r="L171" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="172" spans="12:12">
-      <c r="L172" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="173" spans="12:12">
-      <c r="L173" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="174" spans="12:12">
-      <c r="L174" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="175" spans="12:12">
-      <c r="L175" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="176" spans="12:12">
-      <c r="L176" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="177" spans="12:12">
-      <c r="L177" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="178" spans="12:12">
-      <c r="L178" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="179" spans="12:12">
-      <c r="L179" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="180" spans="12:12">
-      <c r="L180" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="181" spans="12:12">
-      <c r="L181" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="182" spans="12:12">
-      <c r="L182" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="183" spans="12:12">
-      <c r="L183" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="184" spans="12:12">
-      <c r="L184" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="185" spans="12:12">
-      <c r="L185" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="186" spans="12:12">
-      <c r="L186" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="187" spans="12:12">
-      <c r="L187" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="188" spans="12:12">
-      <c r="L188" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="189" spans="12:12">
-      <c r="L189" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="190" spans="12:12">
-      <c r="L190" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="191" spans="12:12">
-      <c r="L191" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="192" spans="12:12">
-      <c r="L192" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="193" spans="12:12">
-      <c r="L193" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="194" spans="12:12">
-      <c r="L194" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="195" spans="12:12">
-      <c r="L195" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="196" spans="12:12">
-      <c r="L196" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="197" spans="12:12">
-      <c r="L197" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="198" spans="12:12">
-      <c r="L198" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="199" spans="12:12">
-      <c r="L199" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="200" spans="12:12">
-      <c r="L200" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="201" spans="12:12">
-      <c r="L201" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="202" spans="12:12">
-      <c r="L202" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="203" spans="12:12">
-      <c r="L203" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="204" spans="12:12">
-      <c r="L204" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="205" spans="12:12">
-      <c r="L205" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="206" spans="12:12">
-      <c r="L206" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="207" spans="12:12">
-      <c r="L207" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="208" spans="12:12">
-      <c r="L208" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="209" spans="12:12">
-      <c r="L209" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="210" spans="12:12">
-      <c r="L210" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="211" spans="12:12">
-      <c r="L211" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="212" spans="12:12">
-      <c r="L212" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="213" spans="12:12">
-      <c r="L213" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="214" spans="12:12">
-      <c r="L214" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="215" spans="12:12">
-      <c r="L215" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="216" spans="12:12">
-      <c r="L216" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="217" spans="12:12">
-      <c r="L217" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="218" spans="12:12">
-      <c r="L218" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="219" spans="12:12">
-      <c r="L219" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="220" spans="12:12">
-      <c r="L220" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="221" spans="12:12">
-      <c r="L221" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="222" spans="12:12">
-      <c r="L222" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="223" spans="12:12">
-      <c r="L223" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="224" spans="12:12">
-      <c r="L224" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="225" spans="12:12">
-      <c r="L225" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="226" spans="12:12">
-      <c r="L226" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="227" spans="12:12">
-      <c r="L227" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="228" spans="12:12">
-      <c r="L228" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="229" spans="12:12">
-      <c r="L229" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="230" spans="12:12">
-      <c r="L230" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="231" spans="12:12">
-      <c r="L231" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="232" spans="12:12">
-      <c r="L232" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="233" spans="12:12">
-      <c r="L233" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="234" spans="12:12">
-      <c r="L234" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="235" spans="12:12">
-      <c r="L235" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="236" spans="12:12">
-      <c r="L236" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="237" spans="12:12">
-      <c r="L237" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="238" spans="12:12">
-      <c r="L238" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="239" spans="12:12">
-      <c r="L239" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="240" spans="12:12">
-      <c r="L240" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="241" spans="12:12">
-      <c r="L241" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="242" spans="12:12">
-      <c r="L242" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="243" spans="12:12">
-      <c r="L243" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="244" spans="12:12">
-      <c r="L244" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="245" spans="12:12">
-      <c r="L245" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="246" spans="12:12">
-      <c r="L246" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="247" spans="12:12">
-      <c r="L247" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="248" spans="12:12">
-      <c r="L248" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="249" spans="12:12">
-      <c r="L249" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="250" spans="12:12">
-      <c r="L250" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="251" spans="12:12">
-      <c r="L251" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="252" spans="12:12">
-      <c r="L252" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="253" spans="12:12">
-      <c r="L253" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="254" spans="12:12">
-      <c r="L254" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="255" spans="12:12">
-      <c r="L255" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="256" spans="12:12">
-      <c r="L256" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="257" spans="12:12">
-      <c r="L257" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="258" spans="12:12">
-      <c r="L258" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="259" spans="12:12">
-      <c r="L259" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="260" spans="12:12">
-      <c r="L260" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="261" spans="12:12">
-      <c r="L261" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="262" spans="12:12">
-      <c r="L262" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="263" spans="12:12">
-      <c r="L263" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="264" spans="12:12">
-      <c r="L264" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="265" spans="12:12">
-      <c r="L265" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="266" spans="12:12">
-      <c r="L266" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="267" spans="12:12">
-      <c r="L267" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="268" spans="12:12">
-      <c r="L268" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="269" spans="12:12">
-      <c r="L269" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="270" spans="12:12">
-      <c r="L270" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="271" spans="12:12">
-      <c r="L271" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="272" spans="12:12">
-      <c r="L272" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="273" spans="12:12">
-      <c r="L273" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="274" spans="12:12">
-      <c r="L274" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="275" spans="12:12">
-      <c r="L275" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="276" spans="12:12">
-      <c r="L276" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="277" spans="12:12">
-      <c r="L277" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="278" spans="12:12">
-      <c r="L278" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="279" spans="12:12">
-      <c r="L279" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="280" spans="12:12">
-      <c r="L280" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="281" spans="12:12">
-      <c r="L281" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="282" spans="12:12">
-      <c r="L282" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="283" spans="12:12">
-      <c r="L283" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="284" spans="12:12">
-      <c r="L284" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="285" spans="12:12">
-      <c r="L285" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="286" spans="12:12">
-      <c r="L286" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="287" spans="12:12">
-      <c r="L287" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="288" spans="12:12">
-      <c r="L288" t="s">
-        <v>567</v>
+    <row r="279" spans="17:17">
+      <c r="Q279" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="280" spans="17:17">
+      <c r="Q280" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="281" spans="17:17">
+      <c r="Q281" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="282" spans="17:17">
+      <c r="Q282" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="283" spans="17:17">
+      <c r="Q283" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="284" spans="17:17">
+      <c r="Q284" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="285" spans="17:17">
+      <c r="Q285" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="286" spans="17:17">
+      <c r="Q286" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="287" spans="17:17">
+      <c r="Q287" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="288" spans="17:17">
+      <c r="Q288" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="289" spans="17:17">
+      <c r="Q289" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -20,7 +20,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
     <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="628">
   <si>
     <t>alias</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2451,7 +2454,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2495,7 +2498,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2525,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3234,6 +3237,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3258,27 +3266,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3301,122 +3309,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3443,228 +3451,228 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -3690,127 +3698,127 @@
   <sheetData>
     <row r="1" spans="17:25">
       <c r="Q1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="17:25">
       <c r="Q2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="17:25">
       <c r="Q3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="17:25">
       <c r="Q4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="17:25">
       <c r="Q5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="17:25">
       <c r="Q6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="17:25">
       <c r="Q7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="17:25">
       <c r="Q8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="17:25">
       <c r="Q9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="17:25">
       <c r="Q10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="17:25">
       <c r="Q11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y11" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="17:25">
       <c r="Q12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="17:25">
       <c r="Q13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="17:25">
       <c r="Q14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y14" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="17:25">
       <c r="Q15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y15" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="17:25">
       <c r="Q16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y16" t="s">
         <v>116</v>
@@ -3818,1370 +3826,1370 @@
     </row>
     <row r="17" spans="17:25">
       <c r="Q17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="17:25">
       <c r="Q18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="17:25">
       <c r="Q19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="17:25">
       <c r="Q20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="17:25">
       <c r="Q21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="17:25">
       <c r="Q22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="17:25">
       <c r="Q23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="17:25">
       <c r="Q24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="17:25">
       <c r="Q25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="17:25">
       <c r="Q26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="17:25">
       <c r="Q27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="17:25">
       <c r="Q28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="17:25">
       <c r="Q29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="17:25">
       <c r="Q30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="17:25">
       <c r="Q31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="17:25">
       <c r="Q32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="17:17">
       <c r="Q33" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="17:17">
       <c r="Q34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="17:17">
       <c r="Q35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="17:17">
       <c r="Q36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="17:17">
       <c r="Q37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="17:17">
       <c r="Q38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="17:17">
       <c r="Q39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="17:17">
       <c r="Q40" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="17:17">
       <c r="Q41" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="17:17">
       <c r="Q42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="17:17">
       <c r="Q43" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="17:17">
       <c r="Q44" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="17:17">
       <c r="Q45" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="17:17">
       <c r="Q46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="17:17">
       <c r="Q47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="17:17">
       <c r="Q48" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="17:17">
       <c r="Q49" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="17:17">
       <c r="Q50" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="17:17">
       <c r="Q51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="17:17">
       <c r="Q52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="17:17">
       <c r="Q53" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="17:17">
       <c r="Q54" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="17:17">
       <c r="Q55" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="17:17">
       <c r="Q56" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="17:17">
       <c r="Q57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="17:17">
       <c r="Q58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="17:17">
       <c r="Q59" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="17:17">
       <c r="Q60" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="17:17">
       <c r="Q61" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="17:17">
       <c r="Q62" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="17:17">
       <c r="Q63" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="17:17">
       <c r="Q64" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="17:17">
       <c r="Q65" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="17:17">
       <c r="Q66" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="17:17">
       <c r="Q67" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="17:17">
       <c r="Q68" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="17:17">
       <c r="Q69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="17:17">
       <c r="Q70" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="17:17">
       <c r="Q71" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="17:17">
       <c r="Q72" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="17:17">
       <c r="Q73" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="17:17">
       <c r="Q74" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="17:17">
       <c r="Q75" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="17:17">
       <c r="Q76" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="17:17">
       <c r="Q77" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="17:17">
       <c r="Q78" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="17:17">
       <c r="Q79" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="17:17">
       <c r="Q80" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="17:17">
       <c r="Q81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="17:17">
       <c r="Q82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="17:17">
       <c r="Q83" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" spans="17:17">
       <c r="Q84" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="17:17">
       <c r="Q85" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="17:17">
       <c r="Q86" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="17:17">
       <c r="Q87" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="17:17">
       <c r="Q88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="17:17">
       <c r="Q89" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="17:17">
       <c r="Q90" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="17:17">
       <c r="Q91" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="17:17">
       <c r="Q92" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="17:17">
       <c r="Q93" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="17:17">
       <c r="Q94" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="17:17">
       <c r="Q95" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="17:17">
       <c r="Q96" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="17:17">
       <c r="Q97" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="17:17">
       <c r="Q98" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" spans="17:17">
       <c r="Q99" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="17:17">
       <c r="Q100" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" spans="17:17">
       <c r="Q101" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="102" spans="17:17">
       <c r="Q102" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="17:17">
       <c r="Q103" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="17:17">
       <c r="Q104" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="17:17">
       <c r="Q105" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="106" spans="17:17">
       <c r="Q106" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="17:17">
       <c r="Q107" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="17:17">
       <c r="Q108" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="17:17">
       <c r="Q109" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="17:17">
       <c r="Q110" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="17:17">
       <c r="Q111" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="17:17">
       <c r="Q112" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="17:17">
       <c r="Q113" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="17:17">
       <c r="Q114" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="17:17">
       <c r="Q115" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" spans="17:17">
       <c r="Q116" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="17:17">
       <c r="Q117" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="17:17">
       <c r="Q118" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" spans="17:17">
       <c r="Q119" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="17:17">
       <c r="Q120" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="121" spans="17:17">
       <c r="Q121" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="17:17">
       <c r="Q122" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" spans="17:17">
       <c r="Q123" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" spans="17:17">
       <c r="Q124" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" spans="17:17">
       <c r="Q125" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="126" spans="17:17">
       <c r="Q126" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="17:17">
       <c r="Q127" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" spans="17:17">
       <c r="Q128" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="17:17">
       <c r="Q129" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="17:17">
       <c r="Q130" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="17:17">
       <c r="Q131" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="132" spans="17:17">
       <c r="Q132" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="133" spans="17:17">
       <c r="Q133" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="17:17">
       <c r="Q134" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="17:17">
       <c r="Q135" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="17:17">
       <c r="Q136" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="17:17">
       <c r="Q137" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="17:17">
       <c r="Q138" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="17:17">
       <c r="Q139" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="17:17">
       <c r="Q140" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="141" spans="17:17">
       <c r="Q141" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="17:17">
       <c r="Q142" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" spans="17:17">
       <c r="Q143" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="144" spans="17:17">
       <c r="Q144" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="17:17">
       <c r="Q145" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146" spans="17:17">
       <c r="Q146" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="17:17">
       <c r="Q147" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" spans="17:17">
       <c r="Q148" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="149" spans="17:17">
       <c r="Q149" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="150" spans="17:17">
       <c r="Q150" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="151" spans="17:17">
       <c r="Q151" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="152" spans="17:17">
       <c r="Q152" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="17:17">
       <c r="Q153" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="154" spans="17:17">
       <c r="Q154" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="155" spans="17:17">
       <c r="Q155" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="17:17">
       <c r="Q156" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="157" spans="17:17">
       <c r="Q157" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="158" spans="17:17">
       <c r="Q158" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="159" spans="17:17">
       <c r="Q159" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="160" spans="17:17">
       <c r="Q160" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" spans="17:17">
       <c r="Q161" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="17:17">
       <c r="Q162" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="163" spans="17:17">
       <c r="Q163" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="17:17">
       <c r="Q164" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="165" spans="17:17">
       <c r="Q165" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="166" spans="17:17">
       <c r="Q166" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="167" spans="17:17">
       <c r="Q167" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="168" spans="17:17">
       <c r="Q168" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="169" spans="17:17">
       <c r="Q169" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="17:17">
       <c r="Q170" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="17:17">
       <c r="Q171" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="172" spans="17:17">
       <c r="Q172" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="173" spans="17:17">
       <c r="Q173" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" spans="17:17">
       <c r="Q174" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="175" spans="17:17">
       <c r="Q175" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" spans="17:17">
       <c r="Q176" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="177" spans="17:17">
       <c r="Q177" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178" spans="17:17">
       <c r="Q178" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="179" spans="17:17">
       <c r="Q179" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="180" spans="17:17">
       <c r="Q180" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="181" spans="17:17">
       <c r="Q181" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="182" spans="17:17">
       <c r="Q182" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="17:17">
       <c r="Q183" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="184" spans="17:17">
       <c r="Q184" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="185" spans="17:17">
       <c r="Q185" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="17:17">
       <c r="Q186" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="187" spans="17:17">
       <c r="Q187" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="188" spans="17:17">
       <c r="Q188" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="189" spans="17:17">
       <c r="Q189" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="190" spans="17:17">
       <c r="Q190" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="191" spans="17:17">
       <c r="Q191" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="192" spans="17:17">
       <c r="Q192" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="193" spans="17:17">
       <c r="Q193" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="194" spans="17:17">
       <c r="Q194" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="195" spans="17:17">
       <c r="Q195" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="196" spans="17:17">
       <c r="Q196" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" spans="17:17">
       <c r="Q197" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="198" spans="17:17">
       <c r="Q198" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="199" spans="17:17">
       <c r="Q199" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="200" spans="17:17">
       <c r="Q200" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="201" spans="17:17">
       <c r="Q201" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="202" spans="17:17">
       <c r="Q202" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="203" spans="17:17">
       <c r="Q203" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="204" spans="17:17">
       <c r="Q204" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="205" spans="17:17">
       <c r="Q205" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="206" spans="17:17">
       <c r="Q206" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="207" spans="17:17">
       <c r="Q207" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="208" spans="17:17">
       <c r="Q208" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="209" spans="17:17">
       <c r="Q209" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="210" spans="17:17">
       <c r="Q210" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="211" spans="17:17">
       <c r="Q211" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="212" spans="17:17">
       <c r="Q212" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="213" spans="17:17">
       <c r="Q213" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="214" spans="17:17">
       <c r="Q214" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" spans="17:17">
       <c r="Q215" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="216" spans="17:17">
       <c r="Q216" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="217" spans="17:17">
       <c r="Q217" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="218" spans="17:17">
       <c r="Q218" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="219" spans="17:17">
       <c r="Q219" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="220" spans="17:17">
       <c r="Q220" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="221" spans="17:17">
       <c r="Q221" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="222" spans="17:17">
       <c r="Q222" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="223" spans="17:17">
       <c r="Q223" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="224" spans="17:17">
       <c r="Q224" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="225" spans="17:17">
       <c r="Q225" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="226" spans="17:17">
       <c r="Q226" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="227" spans="17:17">
       <c r="Q227" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="228" spans="17:17">
       <c r="Q228" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="229" spans="17:17">
       <c r="Q229" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="230" spans="17:17">
       <c r="Q230" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="231" spans="17:17">
       <c r="Q231" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="232" spans="17:17">
       <c r="Q232" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="233" spans="17:17">
       <c r="Q233" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="234" spans="17:17">
       <c r="Q234" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="235" spans="17:17">
       <c r="Q235" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="236" spans="17:17">
       <c r="Q236" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="237" spans="17:17">
       <c r="Q237" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="238" spans="17:17">
       <c r="Q238" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="239" spans="17:17">
       <c r="Q239" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="240" spans="17:17">
       <c r="Q240" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="241" spans="17:17">
       <c r="Q241" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="242" spans="17:17">
       <c r="Q242" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="243" spans="17:17">
       <c r="Q243" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="244" spans="17:17">
       <c r="Q244" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="245" spans="17:17">
       <c r="Q245" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="246" spans="17:17">
       <c r="Q246" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="247" spans="17:17">
       <c r="Q247" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="248" spans="17:17">
       <c r="Q248" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="249" spans="17:17">
       <c r="Q249" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="250" spans="17:17">
       <c r="Q250" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="251" spans="17:17">
       <c r="Q251" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="252" spans="17:17">
       <c r="Q252" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="253" spans="17:17">
       <c r="Q253" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="254" spans="17:17">
       <c r="Q254" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="255" spans="17:17">
       <c r="Q255" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="256" spans="17:17">
       <c r="Q256" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="257" spans="17:17">
       <c r="Q257" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="258" spans="17:17">
       <c r="Q258" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="259" spans="17:17">
       <c r="Q259" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="260" spans="17:17">
       <c r="Q260" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="261" spans="17:17">
       <c r="Q261" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="262" spans="17:17">
       <c r="Q262" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="263" spans="17:17">
       <c r="Q263" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="17:17">
       <c r="Q264" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="265" spans="17:17">
       <c r="Q265" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="266" spans="17:17">
       <c r="Q266" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="267" spans="17:17">
       <c r="Q267" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="268" spans="17:17">
       <c r="Q268" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="269" spans="17:17">
       <c r="Q269" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="270" spans="17:17">
       <c r="Q270" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="271" spans="17:17">
       <c r="Q271" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="272" spans="17:17">
       <c r="Q272" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="273" spans="17:17">
       <c r="Q273" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="274" spans="17:17">
       <c r="Q274" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="275" spans="17:17">
       <c r="Q275" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="276" spans="17:17">
       <c r="Q276" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="277" spans="17:17">
       <c r="Q277" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="278" spans="17:17">
       <c r="Q278" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="279" spans="17:17">
       <c r="Q279" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="280" spans="17:17">
       <c r="Q280" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="281" spans="17:17">
       <c r="Q281" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="17:17">
       <c r="Q282" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="283" spans="17:17">
       <c r="Q283" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="284" spans="17:17">
       <c r="Q284" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="285" spans="17:17">
       <c r="Q285" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="286" spans="17:17">
       <c r="Q286" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="287" spans="17:17">
       <c r="Q287" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="288" spans="17:17">
       <c r="Q288" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -20,7 +20,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
     <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="629">
   <si>
     <t>alias</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2454,7 +2457,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2498,7 +2501,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2528,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3242,6 +3245,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3266,27 +3274,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3309,122 +3317,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3451,228 +3459,228 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -3698,127 +3706,127 @@
   <sheetData>
     <row r="1" spans="17:25">
       <c r="Q1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="17:25">
       <c r="Q2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="17:25">
       <c r="Q3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="17:25">
       <c r="Q4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="17:25">
       <c r="Q5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="17:25">
       <c r="Q6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="17:25">
       <c r="Q7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="17:25">
       <c r="Q8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="17:25">
       <c r="Q9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="17:25">
       <c r="Q10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="17:25">
       <c r="Q11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y11" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="17:25">
       <c r="Q12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="17:25">
       <c r="Q13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="17:25">
       <c r="Q14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y14" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="17:25">
       <c r="Q15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y15" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="17:25">
       <c r="Q16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y16" t="s">
         <v>116</v>
@@ -3826,1370 +3834,1370 @@
     </row>
     <row r="17" spans="17:25">
       <c r="Q17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="17:25">
       <c r="Q18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="17:25">
       <c r="Q19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="17:25">
       <c r="Q20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="17:25">
       <c r="Q21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="17:25">
       <c r="Q22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="17:25">
       <c r="Q23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="17:25">
       <c r="Q24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="17:25">
       <c r="Q25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="17:25">
       <c r="Q26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="17:25">
       <c r="Q27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="17:25">
       <c r="Q28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="17:25">
       <c r="Q29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="17:25">
       <c r="Q30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="17:25">
       <c r="Q31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="17:25">
       <c r="Q32" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="17:17">
       <c r="Q33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="17:17">
       <c r="Q34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="17:17">
       <c r="Q35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="17:17">
       <c r="Q36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="17:17">
       <c r="Q37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="17:17">
       <c r="Q38" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="17:17">
       <c r="Q39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="17:17">
       <c r="Q40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="17:17">
       <c r="Q41" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="17:17">
       <c r="Q42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="17:17">
       <c r="Q43" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="17:17">
       <c r="Q44" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="17:17">
       <c r="Q45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="17:17">
       <c r="Q46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="17:17">
       <c r="Q47" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="17:17">
       <c r="Q48" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="17:17">
       <c r="Q49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="17:17">
       <c r="Q50" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="17:17">
       <c r="Q51" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="17:17">
       <c r="Q52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="17:17">
       <c r="Q53" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="17:17">
       <c r="Q54" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="17:17">
       <c r="Q55" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="17:17">
       <c r="Q56" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="17:17">
       <c r="Q57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="17:17">
       <c r="Q58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="17:17">
       <c r="Q59" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="17:17">
       <c r="Q60" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="17:17">
       <c r="Q61" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="17:17">
       <c r="Q62" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="17:17">
       <c r="Q63" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="17:17">
       <c r="Q64" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="17:17">
       <c r="Q65" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="17:17">
       <c r="Q66" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="17:17">
       <c r="Q67" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="17:17">
       <c r="Q68" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="17:17">
       <c r="Q69" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="17:17">
       <c r="Q70" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="17:17">
       <c r="Q71" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="17:17">
       <c r="Q72" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="17:17">
       <c r="Q73" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="17:17">
       <c r="Q74" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="17:17">
       <c r="Q75" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="17:17">
       <c r="Q76" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="17:17">
       <c r="Q77" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="17:17">
       <c r="Q78" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79" spans="17:17">
       <c r="Q79" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="17:17">
       <c r="Q80" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="17:17">
       <c r="Q81" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="17:17">
       <c r="Q82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="83" spans="17:17">
       <c r="Q83" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="17:17">
       <c r="Q84" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="17:17">
       <c r="Q85" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="17:17">
       <c r="Q86" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="17:17">
       <c r="Q87" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="17:17">
       <c r="Q88" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="17:17">
       <c r="Q89" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="17:17">
       <c r="Q90" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="17:17">
       <c r="Q91" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="17:17">
       <c r="Q92" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93" spans="17:17">
       <c r="Q93" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="17:17">
       <c r="Q94" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="95" spans="17:17">
       <c r="Q95" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96" spans="17:17">
       <c r="Q96" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="17:17">
       <c r="Q97" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="17:17">
       <c r="Q98" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="17:17">
       <c r="Q99" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="17:17">
       <c r="Q100" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="17:17">
       <c r="Q101" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="17:17">
       <c r="Q102" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="17:17">
       <c r="Q103" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="17:17">
       <c r="Q104" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="105" spans="17:17">
       <c r="Q105" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="106" spans="17:17">
       <c r="Q106" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="17:17">
       <c r="Q107" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="108" spans="17:17">
       <c r="Q108" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="17:17">
       <c r="Q109" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="17:17">
       <c r="Q110" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="17:17">
       <c r="Q111" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="17:17">
       <c r="Q112" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="17:17">
       <c r="Q113" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="17:17">
       <c r="Q114" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="17:17">
       <c r="Q115" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="17:17">
       <c r="Q116" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="117" spans="17:17">
       <c r="Q117" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="17:17">
       <c r="Q118" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" spans="17:17">
       <c r="Q119" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="17:17">
       <c r="Q120" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="17:17">
       <c r="Q121" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122" spans="17:17">
       <c r="Q122" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="17:17">
       <c r="Q123" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="17:17">
       <c r="Q124" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="17:17">
       <c r="Q125" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="17:17">
       <c r="Q126" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="17:17">
       <c r="Q127" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="17:17">
       <c r="Q128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="17:17">
       <c r="Q129" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="17:17">
       <c r="Q130" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131" spans="17:17">
       <c r="Q131" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="17:17">
       <c r="Q132" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="17:17">
       <c r="Q133" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="17:17">
       <c r="Q134" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="17:17">
       <c r="Q135" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="17:17">
       <c r="Q136" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="17:17">
       <c r="Q137" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="17:17">
       <c r="Q138" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" spans="17:17">
       <c r="Q139" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="17:17">
       <c r="Q140" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="141" spans="17:17">
       <c r="Q141" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="17:17">
       <c r="Q142" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143" spans="17:17">
       <c r="Q143" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="17:17">
       <c r="Q144" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="17:17">
       <c r="Q145" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" spans="17:17">
       <c r="Q146" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="17:17">
       <c r="Q147" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="148" spans="17:17">
       <c r="Q148" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" spans="17:17">
       <c r="Q149" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="17:17">
       <c r="Q150" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="151" spans="17:17">
       <c r="Q151" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="17:17">
       <c r="Q152" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="17:17">
       <c r="Q153" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="154" spans="17:17">
       <c r="Q154" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="17:17">
       <c r="Q155" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="156" spans="17:17">
       <c r="Q156" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="157" spans="17:17">
       <c r="Q157" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" spans="17:17">
       <c r="Q158" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="17:17">
       <c r="Q159" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" spans="17:17">
       <c r="Q160" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="17:17">
       <c r="Q161" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="17:17">
       <c r="Q162" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="17:17">
       <c r="Q163" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="17:17">
       <c r="Q164" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="17:17">
       <c r="Q165" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="166" spans="17:17">
       <c r="Q166" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="17:17">
       <c r="Q167" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="168" spans="17:17">
       <c r="Q168" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="169" spans="17:17">
       <c r="Q169" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="170" spans="17:17">
       <c r="Q170" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="17:17">
       <c r="Q171" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" spans="17:17">
       <c r="Q172" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" spans="17:17">
       <c r="Q173" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" spans="17:17">
       <c r="Q174" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="17:17">
       <c r="Q175" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="17:17">
       <c r="Q176" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177" spans="17:17">
       <c r="Q177" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178" spans="17:17">
       <c r="Q178" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="17:17">
       <c r="Q179" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180" spans="17:17">
       <c r="Q180" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="181" spans="17:17">
       <c r="Q181" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="17:17">
       <c r="Q182" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="183" spans="17:17">
       <c r="Q183" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="184" spans="17:17">
       <c r="Q184" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="17:17">
       <c r="Q185" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="17:17">
       <c r="Q186" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="17:17">
       <c r="Q187" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="188" spans="17:17">
       <c r="Q188" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="189" spans="17:17">
       <c r="Q189" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="190" spans="17:17">
       <c r="Q190" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191" spans="17:17">
       <c r="Q191" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="192" spans="17:17">
       <c r="Q192" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="193" spans="17:17">
       <c r="Q193" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="17:17">
       <c r="Q194" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="17:17">
       <c r="Q195" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" spans="17:17">
       <c r="Q196" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="197" spans="17:17">
       <c r="Q197" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="17:17">
       <c r="Q198" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="17:17">
       <c r="Q199" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="200" spans="17:17">
       <c r="Q200" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="201" spans="17:17">
       <c r="Q201" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="202" spans="17:17">
       <c r="Q202" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="203" spans="17:17">
       <c r="Q203" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="17:17">
       <c r="Q204" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="205" spans="17:17">
       <c r="Q205" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="206" spans="17:17">
       <c r="Q206" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="207" spans="17:17">
       <c r="Q207" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="208" spans="17:17">
       <c r="Q208" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" spans="17:17">
       <c r="Q209" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="17:17">
       <c r="Q210" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="211" spans="17:17">
       <c r="Q211" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="212" spans="17:17">
       <c r="Q212" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="213" spans="17:17">
       <c r="Q213" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="214" spans="17:17">
       <c r="Q214" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="215" spans="17:17">
       <c r="Q215" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="216" spans="17:17">
       <c r="Q216" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="217" spans="17:17">
       <c r="Q217" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="218" spans="17:17">
       <c r="Q218" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="219" spans="17:17">
       <c r="Q219" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="220" spans="17:17">
       <c r="Q220" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="221" spans="17:17">
       <c r="Q221" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="222" spans="17:17">
       <c r="Q222" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="223" spans="17:17">
       <c r="Q223" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="224" spans="17:17">
       <c r="Q224" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="225" spans="17:17">
       <c r="Q225" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="226" spans="17:17">
       <c r="Q226" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="227" spans="17:17">
       <c r="Q227" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="228" spans="17:17">
       <c r="Q228" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="229" spans="17:17">
       <c r="Q229" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="230" spans="17:17">
       <c r="Q230" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="231" spans="17:17">
       <c r="Q231" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="232" spans="17:17">
       <c r="Q232" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="233" spans="17:17">
       <c r="Q233" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="234" spans="17:17">
       <c r="Q234" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="235" spans="17:17">
       <c r="Q235" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="236" spans="17:17">
       <c r="Q236" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="237" spans="17:17">
       <c r="Q237" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="238" spans="17:17">
       <c r="Q238" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="239" spans="17:17">
       <c r="Q239" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="240" spans="17:17">
       <c r="Q240" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="241" spans="17:17">
       <c r="Q241" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="242" spans="17:17">
       <c r="Q242" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="243" spans="17:17">
       <c r="Q243" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="244" spans="17:17">
       <c r="Q244" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="245" spans="17:17">
       <c r="Q245" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="246" spans="17:17">
       <c r="Q246" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="247" spans="17:17">
       <c r="Q247" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="248" spans="17:17">
       <c r="Q248" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="249" spans="17:17">
       <c r="Q249" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="250" spans="17:17">
       <c r="Q250" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="251" spans="17:17">
       <c r="Q251" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="252" spans="17:17">
       <c r="Q252" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="253" spans="17:17">
       <c r="Q253" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="254" spans="17:17">
       <c r="Q254" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="255" spans="17:17">
       <c r="Q255" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="256" spans="17:17">
       <c r="Q256" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="257" spans="17:17">
       <c r="Q257" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="258" spans="17:17">
       <c r="Q258" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="259" spans="17:17">
       <c r="Q259" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="260" spans="17:17">
       <c r="Q260" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="261" spans="17:17">
       <c r="Q261" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="262" spans="17:17">
       <c r="Q262" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263" spans="17:17">
       <c r="Q263" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="264" spans="17:17">
       <c r="Q264" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="265" spans="17:17">
       <c r="Q265" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="266" spans="17:17">
       <c r="Q266" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="267" spans="17:17">
       <c r="Q267" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="268" spans="17:17">
       <c r="Q268" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="269" spans="17:17">
       <c r="Q269" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="270" spans="17:17">
       <c r="Q270" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="271" spans="17:17">
       <c r="Q271" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="272" spans="17:17">
       <c r="Q272" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="273" spans="17:17">
       <c r="Q273" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="274" spans="17:17">
       <c r="Q274" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="275" spans="17:17">
       <c r="Q275" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="276" spans="17:17">
       <c r="Q276" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="277" spans="17:17">
       <c r="Q277" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="278" spans="17:17">
       <c r="Q278" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="279" spans="17:17">
       <c r="Q279" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="280" spans="17:17">
       <c r="Q280" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="17:17">
       <c r="Q281" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="282" spans="17:17">
       <c r="Q282" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="17:17">
       <c r="Q283" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="284" spans="17:17">
       <c r="Q284" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="285" spans="17:17">
       <c r="Q285" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="286" spans="17:17">
       <c r="Q286" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="287" spans="17:17">
       <c r="Q287" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="288" spans="17:17">
       <c r="Q288" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -20,7 +20,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
     <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="630">
   <si>
     <t>alias</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2457,7 +2460,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2501,7 +2504,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3250,6 +3253,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3274,27 +3282,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3317,122 +3325,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3459,228 +3467,228 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -3706,127 +3714,127 @@
   <sheetData>
     <row r="1" spans="17:25">
       <c r="Q1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="17:25">
       <c r="Q2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="17:25">
       <c r="Q3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="17:25">
       <c r="Q4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="17:25">
       <c r="Q5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="17:25">
       <c r="Q6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="17:25">
       <c r="Q7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="17:25">
       <c r="Q8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="17:25">
       <c r="Q9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="17:25">
       <c r="Q10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="17:25">
       <c r="Q11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y11" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="17:25">
       <c r="Q12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y12" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="17:25">
       <c r="Q13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="17:25">
       <c r="Q14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y14" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="17:25">
       <c r="Q15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y15" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="17:25">
       <c r="Q16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y16" t="s">
         <v>116</v>
@@ -3834,1370 +3842,1370 @@
     </row>
     <row r="17" spans="17:25">
       <c r="Q17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="17:25">
       <c r="Q18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="17:25">
       <c r="Q19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="17:25">
       <c r="Q20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="17:25">
       <c r="Q21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="17:25">
       <c r="Q22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="17:25">
       <c r="Q23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="17:25">
       <c r="Q24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="17:25">
       <c r="Q25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="17:25">
       <c r="Q26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="17:25">
       <c r="Q27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="17:25">
       <c r="Q28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="17:25">
       <c r="Q29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="17:25">
       <c r="Q30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="17:25">
       <c r="Q31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="17:25">
       <c r="Q32" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="17:17">
       <c r="Q33" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="17:17">
       <c r="Q34" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="17:17">
       <c r="Q35" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="17:17">
       <c r="Q36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="17:17">
       <c r="Q37" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="17:17">
       <c r="Q38" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="17:17">
       <c r="Q39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="17:17">
       <c r="Q40" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="17:17">
       <c r="Q41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="17:17">
       <c r="Q42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="17:17">
       <c r="Q43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="17:17">
       <c r="Q44" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="17:17">
       <c r="Q45" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="17:17">
       <c r="Q46" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="17:17">
       <c r="Q47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="17:17">
       <c r="Q48" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="17:17">
       <c r="Q49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="17:17">
       <c r="Q50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="17:17">
       <c r="Q51" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="17:17">
       <c r="Q52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="17:17">
       <c r="Q53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="17:17">
       <c r="Q54" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="17:17">
       <c r="Q55" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="17:17">
       <c r="Q56" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="17:17">
       <c r="Q57" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="17:17">
       <c r="Q58" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="17:17">
       <c r="Q59" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="17:17">
       <c r="Q60" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="17:17">
       <c r="Q61" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="17:17">
       <c r="Q62" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="17:17">
       <c r="Q63" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="17:17">
       <c r="Q64" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="17:17">
       <c r="Q65" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="17:17">
       <c r="Q66" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="17:17">
       <c r="Q67" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="17:17">
       <c r="Q68" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="17:17">
       <c r="Q69" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="17:17">
       <c r="Q70" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="17:17">
       <c r="Q71" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="17:17">
       <c r="Q72" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="17:17">
       <c r="Q73" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="17:17">
       <c r="Q74" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="17:17">
       <c r="Q75" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="17:17">
       <c r="Q76" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="17:17">
       <c r="Q77" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="17:17">
       <c r="Q78" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="17:17">
       <c r="Q79" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="17:17">
       <c r="Q80" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="17:17">
       <c r="Q81" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="17:17">
       <c r="Q82" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="17:17">
       <c r="Q83" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="17:17">
       <c r="Q84" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="17:17">
       <c r="Q85" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="17:17">
       <c r="Q86" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="17:17">
       <c r="Q87" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="17:17">
       <c r="Q88" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="17:17">
       <c r="Q89" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="17:17">
       <c r="Q90" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="17:17">
       <c r="Q91" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="17:17">
       <c r="Q92" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93" spans="17:17">
       <c r="Q93" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="17:17">
       <c r="Q94" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="17:17">
       <c r="Q95" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="17:17">
       <c r="Q96" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="17:17">
       <c r="Q97" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="17:17">
       <c r="Q98" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="17:17">
       <c r="Q99" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="17:17">
       <c r="Q100" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="17:17">
       <c r="Q101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="17:17">
       <c r="Q102" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="17:17">
       <c r="Q103" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="17:17">
       <c r="Q104" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="17:17">
       <c r="Q105" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="17:17">
       <c r="Q106" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="17:17">
       <c r="Q107" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="17:17">
       <c r="Q108" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="17:17">
       <c r="Q109" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="17:17">
       <c r="Q110" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="17:17">
       <c r="Q111" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="17:17">
       <c r="Q112" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="113" spans="17:17">
       <c r="Q113" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="17:17">
       <c r="Q114" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="17:17">
       <c r="Q115" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="17:17">
       <c r="Q116" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="17:17">
       <c r="Q117" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="17:17">
       <c r="Q118" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="17:17">
       <c r="Q119" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="120" spans="17:17">
       <c r="Q120" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="121" spans="17:17">
       <c r="Q121" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="17:17">
       <c r="Q122" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="123" spans="17:17">
       <c r="Q123" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="17:17">
       <c r="Q124" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="125" spans="17:17">
       <c r="Q125" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="17:17">
       <c r="Q126" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="17:17">
       <c r="Q127" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="17:17">
       <c r="Q128" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="17:17">
       <c r="Q129" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="130" spans="17:17">
       <c r="Q130" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="17:17">
       <c r="Q131" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="132" spans="17:17">
       <c r="Q132" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="17:17">
       <c r="Q133" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="17:17">
       <c r="Q134" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="17:17">
       <c r="Q135" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="17:17">
       <c r="Q136" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="17:17">
       <c r="Q137" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="138" spans="17:17">
       <c r="Q138" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="17:17">
       <c r="Q139" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="17:17">
       <c r="Q140" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="141" spans="17:17">
       <c r="Q141" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="142" spans="17:17">
       <c r="Q142" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="17:17">
       <c r="Q143" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="17:17">
       <c r="Q144" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="17:17">
       <c r="Q145" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="17:17">
       <c r="Q146" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" spans="17:17">
       <c r="Q147" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="17:17">
       <c r="Q148" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="17:17">
       <c r="Q149" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="150" spans="17:17">
       <c r="Q150" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="17:17">
       <c r="Q151" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="152" spans="17:17">
       <c r="Q152" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="153" spans="17:17">
       <c r="Q153" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="154" spans="17:17">
       <c r="Q154" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="155" spans="17:17">
       <c r="Q155" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="156" spans="17:17">
       <c r="Q156" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="17:17">
       <c r="Q157" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="17:17">
       <c r="Q158" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="159" spans="17:17">
       <c r="Q159" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="17:17">
       <c r="Q160" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" spans="17:17">
       <c r="Q161" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="162" spans="17:17">
       <c r="Q162" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="163" spans="17:17">
       <c r="Q163" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="164" spans="17:17">
       <c r="Q164" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="17:17">
       <c r="Q165" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="17:17">
       <c r="Q166" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="167" spans="17:17">
       <c r="Q167" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="168" spans="17:17">
       <c r="Q168" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="169" spans="17:17">
       <c r="Q169" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="17:17">
       <c r="Q170" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="171" spans="17:17">
       <c r="Q171" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="172" spans="17:17">
       <c r="Q172" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="173" spans="17:17">
       <c r="Q173" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="17:17">
       <c r="Q174" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="17:17">
       <c r="Q175" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="17:17">
       <c r="Q176" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="177" spans="17:17">
       <c r="Q177" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="178" spans="17:17">
       <c r="Q178" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="179" spans="17:17">
       <c r="Q179" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="180" spans="17:17">
       <c r="Q180" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="181" spans="17:17">
       <c r="Q181" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="182" spans="17:17">
       <c r="Q182" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="183" spans="17:17">
       <c r="Q183" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="184" spans="17:17">
       <c r="Q184" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185" spans="17:17">
       <c r="Q185" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="17:17">
       <c r="Q186" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="187" spans="17:17">
       <c r="Q187" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="188" spans="17:17">
       <c r="Q188" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="189" spans="17:17">
       <c r="Q189" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="190" spans="17:17">
       <c r="Q190" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="191" spans="17:17">
       <c r="Q191" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="192" spans="17:17">
       <c r="Q192" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="193" spans="17:17">
       <c r="Q193" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="194" spans="17:17">
       <c r="Q194" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="195" spans="17:17">
       <c r="Q195" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="196" spans="17:17">
       <c r="Q196" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="197" spans="17:17">
       <c r="Q197" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="198" spans="17:17">
       <c r="Q198" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="199" spans="17:17">
       <c r="Q199" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="200" spans="17:17">
       <c r="Q200" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="201" spans="17:17">
       <c r="Q201" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="202" spans="17:17">
       <c r="Q202" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="203" spans="17:17">
       <c r="Q203" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="204" spans="17:17">
       <c r="Q204" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="205" spans="17:17">
       <c r="Q205" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="206" spans="17:17">
       <c r="Q206" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="207" spans="17:17">
       <c r="Q207" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="208" spans="17:17">
       <c r="Q208" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="209" spans="17:17">
       <c r="Q209" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="210" spans="17:17">
       <c r="Q210" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="211" spans="17:17">
       <c r="Q211" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="212" spans="17:17">
       <c r="Q212" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="213" spans="17:17">
       <c r="Q213" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="214" spans="17:17">
       <c r="Q214" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="215" spans="17:17">
       <c r="Q215" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="216" spans="17:17">
       <c r="Q216" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="217" spans="17:17">
       <c r="Q217" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="218" spans="17:17">
       <c r="Q218" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="219" spans="17:17">
       <c r="Q219" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="220" spans="17:17">
       <c r="Q220" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="221" spans="17:17">
       <c r="Q221" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="222" spans="17:17">
       <c r="Q222" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="223" spans="17:17">
       <c r="Q223" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="224" spans="17:17">
       <c r="Q224" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="225" spans="17:17">
       <c r="Q225" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="226" spans="17:17">
       <c r="Q226" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="227" spans="17:17">
       <c r="Q227" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="228" spans="17:17">
       <c r="Q228" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="229" spans="17:17">
       <c r="Q229" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="230" spans="17:17">
       <c r="Q230" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="231" spans="17:17">
       <c r="Q231" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="232" spans="17:17">
       <c r="Q232" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="233" spans="17:17">
       <c r="Q233" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="234" spans="17:17">
       <c r="Q234" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="235" spans="17:17">
       <c r="Q235" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="236" spans="17:17">
       <c r="Q236" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="237" spans="17:17">
       <c r="Q237" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="238" spans="17:17">
       <c r="Q238" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="239" spans="17:17">
       <c r="Q239" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="240" spans="17:17">
       <c r="Q240" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="241" spans="17:17">
       <c r="Q241" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="242" spans="17:17">
       <c r="Q242" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="243" spans="17:17">
       <c r="Q243" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="244" spans="17:17">
       <c r="Q244" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="245" spans="17:17">
       <c r="Q245" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="246" spans="17:17">
       <c r="Q246" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="247" spans="17:17">
       <c r="Q247" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="248" spans="17:17">
       <c r="Q248" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="249" spans="17:17">
       <c r="Q249" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="250" spans="17:17">
       <c r="Q250" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="251" spans="17:17">
       <c r="Q251" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="252" spans="17:17">
       <c r="Q252" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="253" spans="17:17">
       <c r="Q253" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="254" spans="17:17">
       <c r="Q254" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="255" spans="17:17">
       <c r="Q255" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="256" spans="17:17">
       <c r="Q256" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="257" spans="17:17">
       <c r="Q257" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="258" spans="17:17">
       <c r="Q258" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="259" spans="17:17">
       <c r="Q259" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="260" spans="17:17">
       <c r="Q260" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="261" spans="17:17">
       <c r="Q261" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="262" spans="17:17">
       <c r="Q262" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="263" spans="17:17">
       <c r="Q263" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="264" spans="17:17">
       <c r="Q264" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="265" spans="17:17">
       <c r="Q265" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="266" spans="17:17">
       <c r="Q266" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="267" spans="17:17">
       <c r="Q267" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="268" spans="17:17">
       <c r="Q268" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="269" spans="17:17">
       <c r="Q269" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="270" spans="17:17">
       <c r="Q270" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="271" spans="17:17">
       <c r="Q271" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="272" spans="17:17">
       <c r="Q272" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="273" spans="17:17">
       <c r="Q273" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="274" spans="17:17">
       <c r="Q274" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="275" spans="17:17">
       <c r="Q275" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="276" spans="17:17">
       <c r="Q276" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="277" spans="17:17">
       <c r="Q277" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="278" spans="17:17">
       <c r="Q278" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="279" spans="17:17">
       <c r="Q279" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="280" spans="17:17">
       <c r="Q280" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="281" spans="17:17">
       <c r="Q281" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="17:17">
       <c r="Q282" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="283" spans="17:17">
       <c r="Q283" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="284" spans="17:17">
       <c r="Q284" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="285" spans="17:17">
       <c r="Q285" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="286" spans="17:17">
       <c r="Q286" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="287" spans="17:17">
       <c r="Q287" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="17:17">
       <c r="Q288" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -20,7 +20,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
     <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="631">
   <si>
     <t>alias</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2460,7 +2463,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2504,7 +2507,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2534,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3258,6 +3261,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3282,27 +3290,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3325,122 +3333,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3467,228 +3475,228 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3714,127 +3722,127 @@
   <sheetData>
     <row r="1" spans="17:25">
       <c r="Q1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="17:25">
       <c r="Q2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="17:25">
       <c r="Q3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="17:25">
       <c r="Q4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="17:25">
       <c r="Q5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="17:25">
       <c r="Q6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="17:25">
       <c r="Q7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="17:25">
       <c r="Q8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="17:25">
       <c r="Q9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="17:25">
       <c r="Q10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="17:25">
       <c r="Q11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y11" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="17:25">
       <c r="Q12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="17:25">
       <c r="Q13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="17:25">
       <c r="Q14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y14" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="17:25">
       <c r="Q15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y15" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="17:25">
       <c r="Q16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y16" t="s">
         <v>116</v>
@@ -3842,1370 +3850,1370 @@
     </row>
     <row r="17" spans="17:25">
       <c r="Q17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="17:25">
       <c r="Q18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="17:25">
       <c r="Q19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="17:25">
       <c r="Q20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="17:25">
       <c r="Q21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="17:25">
       <c r="Q22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="17:25">
       <c r="Q23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="17:25">
       <c r="Q24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="17:25">
       <c r="Q25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="17:25">
       <c r="Q26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="17:25">
       <c r="Q27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="17:25">
       <c r="Q28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="17:25">
       <c r="Q29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="17:25">
       <c r="Q30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="17:25">
       <c r="Q31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="17:25">
       <c r="Q32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="17:17">
       <c r="Q33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="17:17">
       <c r="Q34" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="17:17">
       <c r="Q35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="17:17">
       <c r="Q36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="17:17">
       <c r="Q37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="17:17">
       <c r="Q38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="17:17">
       <c r="Q39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="17:17">
       <c r="Q40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="17:17">
       <c r="Q41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="17:17">
       <c r="Q42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="17:17">
       <c r="Q43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="17:17">
       <c r="Q44" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="17:17">
       <c r="Q45" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="17:17">
       <c r="Q46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="17:17">
       <c r="Q47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="17:17">
       <c r="Q48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="17:17">
       <c r="Q49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="17:17">
       <c r="Q50" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="17:17">
       <c r="Q51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="17:17">
       <c r="Q52" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="17:17">
       <c r="Q53" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="17:17">
       <c r="Q54" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="17:17">
       <c r="Q55" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="17:17">
       <c r="Q56" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="17:17">
       <c r="Q57" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="17:17">
       <c r="Q58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="17:17">
       <c r="Q59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="17:17">
       <c r="Q60" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="17:17">
       <c r="Q61" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="17:17">
       <c r="Q62" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="17:17">
       <c r="Q63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="17:17">
       <c r="Q64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="17:17">
       <c r="Q65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="17:17">
       <c r="Q66" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="17:17">
       <c r="Q67" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="17:17">
       <c r="Q68" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="17:17">
       <c r="Q69" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="17:17">
       <c r="Q70" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="17:17">
       <c r="Q71" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="17:17">
       <c r="Q72" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="17:17">
       <c r="Q73" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="17:17">
       <c r="Q74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="17:17">
       <c r="Q75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="17:17">
       <c r="Q76" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="17:17">
       <c r="Q77" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="17:17">
       <c r="Q78" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="17:17">
       <c r="Q79" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="17:17">
       <c r="Q80" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="17:17">
       <c r="Q81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="17:17">
       <c r="Q82" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="17:17">
       <c r="Q83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="17:17">
       <c r="Q84" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="17:17">
       <c r="Q85" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="17:17">
       <c r="Q86" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="17:17">
       <c r="Q87" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="17:17">
       <c r="Q88" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="17:17">
       <c r="Q89" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="17:17">
       <c r="Q90" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" spans="17:17">
       <c r="Q91" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="17:17">
       <c r="Q92" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="17:17">
       <c r="Q93" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="17:17">
       <c r="Q94" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="17:17">
       <c r="Q95" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96" spans="17:17">
       <c r="Q96" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="17:17">
       <c r="Q97" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="17:17">
       <c r="Q98" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="17:17">
       <c r="Q99" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="17:17">
       <c r="Q100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="17:17">
       <c r="Q101" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="17:17">
       <c r="Q102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="17:17">
       <c r="Q103" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="104" spans="17:17">
       <c r="Q104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="17:17">
       <c r="Q105" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="17:17">
       <c r="Q106" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="17:17">
       <c r="Q107" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="17:17">
       <c r="Q108" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="17:17">
       <c r="Q109" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="17:17">
       <c r="Q110" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="17:17">
       <c r="Q111" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="112" spans="17:17">
       <c r="Q112" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="17:17">
       <c r="Q113" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="114" spans="17:17">
       <c r="Q114" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="115" spans="17:17">
       <c r="Q115" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="17:17">
       <c r="Q116" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="117" spans="17:17">
       <c r="Q117" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="118" spans="17:17">
       <c r="Q118" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="17:17">
       <c r="Q119" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="120" spans="17:17">
       <c r="Q120" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121" spans="17:17">
       <c r="Q121" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="17:17">
       <c r="Q122" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="17:17">
       <c r="Q123" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="17:17">
       <c r="Q124" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="125" spans="17:17">
       <c r="Q125" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="126" spans="17:17">
       <c r="Q126" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="127" spans="17:17">
       <c r="Q127" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="17:17">
       <c r="Q128" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="129" spans="17:17">
       <c r="Q129" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="17:17">
       <c r="Q130" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131" spans="17:17">
       <c r="Q131" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="17:17">
       <c r="Q132" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="17:17">
       <c r="Q133" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="17:17">
       <c r="Q134" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135" spans="17:17">
       <c r="Q135" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="17:17">
       <c r="Q136" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="17:17">
       <c r="Q137" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="17:17">
       <c r="Q138" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="17:17">
       <c r="Q139" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="140" spans="17:17">
       <c r="Q140" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="17:17">
       <c r="Q141" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="17:17">
       <c r="Q142" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="17:17">
       <c r="Q143" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="17:17">
       <c r="Q144" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="17:17">
       <c r="Q145" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="146" spans="17:17">
       <c r="Q146" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" spans="17:17">
       <c r="Q147" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="17:17">
       <c r="Q148" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="17:17">
       <c r="Q149" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="17:17">
       <c r="Q150" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="151" spans="17:17">
       <c r="Q151" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="152" spans="17:17">
       <c r="Q152" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="17:17">
       <c r="Q153" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="154" spans="17:17">
       <c r="Q154" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="17:17">
       <c r="Q155" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="156" spans="17:17">
       <c r="Q156" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="157" spans="17:17">
       <c r="Q157" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="17:17">
       <c r="Q158" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="17:17">
       <c r="Q159" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="17:17">
       <c r="Q160" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="17:17">
       <c r="Q161" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="162" spans="17:17">
       <c r="Q162" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="17:17">
       <c r="Q163" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="164" spans="17:17">
       <c r="Q164" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165" spans="17:17">
       <c r="Q165" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="17:17">
       <c r="Q166" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="167" spans="17:17">
       <c r="Q167" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="17:17">
       <c r="Q168" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="169" spans="17:17">
       <c r="Q169" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="170" spans="17:17">
       <c r="Q170" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="17:17">
       <c r="Q171" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="17:17">
       <c r="Q172" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="17:17">
       <c r="Q173" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="174" spans="17:17">
       <c r="Q174" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="17:17">
       <c r="Q175" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="176" spans="17:17">
       <c r="Q176" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="177" spans="17:17">
       <c r="Q177" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="178" spans="17:17">
       <c r="Q178" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="17:17">
       <c r="Q179" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="180" spans="17:17">
       <c r="Q180" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="181" spans="17:17">
       <c r="Q181" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="182" spans="17:17">
       <c r="Q182" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="183" spans="17:17">
       <c r="Q183" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="184" spans="17:17">
       <c r="Q184" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="17:17">
       <c r="Q185" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="186" spans="17:17">
       <c r="Q186" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="187" spans="17:17">
       <c r="Q187" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="188" spans="17:17">
       <c r="Q188" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="17:17">
       <c r="Q189" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="190" spans="17:17">
       <c r="Q190" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="17:17">
       <c r="Q191" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="17:17">
       <c r="Q192" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="193" spans="17:17">
       <c r="Q193" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" spans="17:17">
       <c r="Q194" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="195" spans="17:17">
       <c r="Q195" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="196" spans="17:17">
       <c r="Q196" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="197" spans="17:17">
       <c r="Q197" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="198" spans="17:17">
       <c r="Q198" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="17:17">
       <c r="Q199" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="17:17">
       <c r="Q200" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="201" spans="17:17">
       <c r="Q201" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="17:17">
       <c r="Q202" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="203" spans="17:17">
       <c r="Q203" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="204" spans="17:17">
       <c r="Q204" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" spans="17:17">
       <c r="Q205" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="206" spans="17:17">
       <c r="Q206" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="207" spans="17:17">
       <c r="Q207" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="17:17">
       <c r="Q208" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="209" spans="17:17">
       <c r="Q209" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="17:17">
       <c r="Q210" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="211" spans="17:17">
       <c r="Q211" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="212" spans="17:17">
       <c r="Q212" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="213" spans="17:17">
       <c r="Q213" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="214" spans="17:17">
       <c r="Q214" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="215" spans="17:17">
       <c r="Q215" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="216" spans="17:17">
       <c r="Q216" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="217" spans="17:17">
       <c r="Q217" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" spans="17:17">
       <c r="Q218" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="219" spans="17:17">
       <c r="Q219" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="220" spans="17:17">
       <c r="Q220" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="221" spans="17:17">
       <c r="Q221" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="222" spans="17:17">
       <c r="Q222" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="223" spans="17:17">
       <c r="Q223" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="224" spans="17:17">
       <c r="Q224" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="225" spans="17:17">
       <c r="Q225" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="226" spans="17:17">
       <c r="Q226" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="227" spans="17:17">
       <c r="Q227" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="228" spans="17:17">
       <c r="Q228" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="229" spans="17:17">
       <c r="Q229" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="230" spans="17:17">
       <c r="Q230" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="231" spans="17:17">
       <c r="Q231" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="232" spans="17:17">
       <c r="Q232" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="233" spans="17:17">
       <c r="Q233" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="234" spans="17:17">
       <c r="Q234" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="235" spans="17:17">
       <c r="Q235" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="236" spans="17:17">
       <c r="Q236" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="237" spans="17:17">
       <c r="Q237" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="238" spans="17:17">
       <c r="Q238" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="239" spans="17:17">
       <c r="Q239" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="240" spans="17:17">
       <c r="Q240" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="241" spans="17:17">
       <c r="Q241" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="242" spans="17:17">
       <c r="Q242" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="243" spans="17:17">
       <c r="Q243" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="244" spans="17:17">
       <c r="Q244" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="245" spans="17:17">
       <c r="Q245" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="246" spans="17:17">
       <c r="Q246" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="247" spans="17:17">
       <c r="Q247" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="248" spans="17:17">
       <c r="Q248" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="249" spans="17:17">
       <c r="Q249" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="250" spans="17:17">
       <c r="Q250" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="251" spans="17:17">
       <c r="Q251" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="252" spans="17:17">
       <c r="Q252" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="253" spans="17:17">
       <c r="Q253" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="254" spans="17:17">
       <c r="Q254" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="255" spans="17:17">
       <c r="Q255" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="256" spans="17:17">
       <c r="Q256" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="257" spans="17:17">
       <c r="Q257" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="258" spans="17:17">
       <c r="Q258" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="259" spans="17:17">
       <c r="Q259" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="260" spans="17:17">
       <c r="Q260" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="17:17">
       <c r="Q261" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="262" spans="17:17">
       <c r="Q262" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="263" spans="17:17">
       <c r="Q263" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="264" spans="17:17">
       <c r="Q264" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="265" spans="17:17">
       <c r="Q265" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="266" spans="17:17">
       <c r="Q266" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="267" spans="17:17">
       <c r="Q267" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="268" spans="17:17">
       <c r="Q268" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="269" spans="17:17">
       <c r="Q269" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="270" spans="17:17">
       <c r="Q270" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="271" spans="17:17">
       <c r="Q271" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="272" spans="17:17">
       <c r="Q272" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="273" spans="17:17">
       <c r="Q273" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="274" spans="17:17">
       <c r="Q274" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="275" spans="17:17">
       <c r="Q275" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="276" spans="17:17">
       <c r="Q276" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="277" spans="17:17">
       <c r="Q277" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="278" spans="17:17">
       <c r="Q278" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="17:17">
       <c r="Q279" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="280" spans="17:17">
       <c r="Q280" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="17:17">
       <c r="Q281" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="282" spans="17:17">
       <c r="Q282" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="283" spans="17:17">
       <c r="Q283" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="284" spans="17:17">
       <c r="Q284" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="285" spans="17:17">
       <c r="Q285" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="286" spans="17:17">
       <c r="Q286" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="17:17">
       <c r="Q287" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="288" spans="17:17">
       <c r="Q288" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$294</definedName>
     <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="636">
   <si>
     <t>alias</t>
   </si>
@@ -844,73 +844,73 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Recommended) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage buffer</t>
+    <t>sample_storage_buffer</t>
   </si>
   <si>
     <t>(Recommended) Buffer used for sample storage (e.g. rnalater)</t>
   </si>
   <si>
-    <t>sample storage device</t>
+    <t>sample_storage_device</t>
   </si>
   <si>
     <t>(Recommended) The container used to store the sample. this field accepts terms listed under container (http://purl.obolibrary.org/obo/ncit_c43186). if the proper descriptor is not listed please use text to describe the storage device.</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>reference host genome for decontamination</t>
+    <t>reference_host_genome_for_decontamination</t>
   </si>
   <si>
     <t>(Mandatory) Reference host genome that was mapped against for host decontamination (in the form of a valid assembly accession - e.g. in the format gca_xxxxxxx.x)</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>trial length</t>
+    <t>trial_length</t>
   </si>
   <si>
     <t>(Recommended) Length of time from the beginning of the trial until the end of the trial (Units: years)</t>
   </si>
   <si>
-    <t>trial timepoint</t>
+    <t>trial_timepoint</t>
   </si>
   <si>
     <t>(Mandatory) Timepoint of the trial when the sample was collected - length of time after the beginning of the trial (Units: years)</t>
@@ -1129,9 +1129,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1150,6 +1147,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1351,6 +1351,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1360,9 +1363,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1402,7 +1402,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1471,6 +1471,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1546,6 +1549,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1567,6 +1573,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1612,6 +1621,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1624,6 +1636,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1633,9 +1648,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1660,6 +1672,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1720,12 +1735,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1783,49 +1798,49 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Recommended) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host common name</t>
+    <t>host_common_name</t>
   </si>
   <si>
     <t>(Mandatory) Common name of the host, e.g. human</t>
   </si>
   <si>
-    <t>host subject id</t>
+    <t>host_subject_id</t>
   </si>
   <si>
     <t>(Mandatory) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
   </si>
   <si>
-    <t>host taxid</t>
+    <t>host_taxid</t>
   </si>
   <si>
     <t>(Mandatory) Ncbi taxon id of the host, e.g. 9606</t>
   </si>
   <si>
-    <t>host body site</t>
+    <t>host_body_site</t>
   </si>
   <si>
     <t>(Mandatory) Name of body site where the sample was obtained from, such as a specific organ or tissue (tongue, lung etc...). for foundational model of anatomy ontology (fma) (v 3.1) terms, please see http://purl.bioontology.org/ontology/fma</t>
   </si>
   <si>
-    <t>host length</t>
-  </si>
-  <si>
-    <t>(Optional) The length of subject (Units: mm)</t>
-  </si>
-  <si>
-    <t>host total mass</t>
+    <t>host_length</t>
+  </si>
+  <si>
+    <t>(Optional) The length of subject (Units: m)</t>
+  </si>
+  <si>
+    <t>host_total_mass</t>
   </si>
   <si>
     <t>(Recommended) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
@@ -1843,79 +1858,79 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host sex</t>
+    <t>host_sex</t>
   </si>
   <si>
     <t>(Optional) Gender or sex of the host.</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Recommended) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>host breed</t>
+    <t>host_breed</t>
   </si>
   <si>
     <t>(Recommended) Breed of the host (e.g. cobb-500)</t>
   </si>
   <si>
-    <t>host gutted mass</t>
+    <t>host_gutted_mass</t>
   </si>
   <si>
     <t>(Optional) Total mass of the host after gutting, the unit depends on host (Units: kg)</t>
   </si>
   <si>
-    <t>host diet</t>
+    <t>host_diet</t>
   </si>
   <si>
     <t>(Recommended) Type of diet depending on the host, for animals omnivore, herbivore etc., for humans high-fat, mediterranean etc.; can include multiple diet types</t>
   </si>
   <si>
-    <t>host diet treatment</t>
+    <t>host_diet_treatment</t>
   </si>
   <si>
     <t>(Mandatory) Experimental diet treatment/additive to normal host feed e.g. probiotic (gallipro epb5)</t>
   </si>
   <si>
-    <t>host diet treatment concentration</t>
+    <t>host_diet_treatment_concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of experimental diet treatment/additive to normal host feed as a percentage of the mass of the feed (e.g. 20%) (Units: % mass)</t>
   </si>
   <si>
-    <t>host storage container</t>
+    <t>host_storage_container</t>
   </si>
   <si>
     <t>(Optional) Storage container that the host organism is kept in before sampling (e.g. cage, water tank, pen) including details of size and type</t>
   </si>
   <si>
-    <t>host storage container pH</t>
+    <t>host_storage_container_ph</t>
   </si>
   <si>
     <t>(Optional) Ph of the medium in which the host organism is kept before sampling (e.g. ph of water in tank)</t>
   </si>
   <si>
-    <t>host storage container temperature</t>
+    <t>host_storage_container_temperature</t>
   </si>
   <si>
     <t>(Recommended) Temperature at which the host is kept before sampling (Units: °C)</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Mandatory) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Mandatory) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -3517,70 +3532,70 @@
         <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="150" customHeight="1">
@@ -3633,70 +3648,70 @@
         <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -3714,7 +3729,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="Q1:Y289"/>
+  <dimension ref="Q1:Y294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3725,7 +3740,7 @@
         <v>294</v>
       </c>
       <c r="Y1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="17:25">
@@ -3733,7 +3748,7 @@
         <v>295</v>
       </c>
       <c r="Y2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="17:25">
@@ -3741,7 +3756,7 @@
         <v>296</v>
       </c>
       <c r="Y3" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="17:25">
@@ -3749,7 +3764,7 @@
         <v>297</v>
       </c>
       <c r="Y4" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="17:25">
@@ -3757,7 +3772,7 @@
         <v>298</v>
       </c>
       <c r="Y5" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="17:25">
@@ -3765,7 +3780,7 @@
         <v>299</v>
       </c>
       <c r="Y6" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="17:25">
@@ -3773,7 +3788,7 @@
         <v>300</v>
       </c>
       <c r="Y7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="17:25">
@@ -3781,7 +3796,7 @@
         <v>301</v>
       </c>
       <c r="Y8" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="17:25">
@@ -3789,7 +3804,7 @@
         <v>302</v>
       </c>
       <c r="Y9" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="17:25">
@@ -3797,7 +3812,7 @@
         <v>303</v>
       </c>
       <c r="Y10" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="17:25">
@@ -3805,7 +3820,7 @@
         <v>304</v>
       </c>
       <c r="Y11" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="17:25">
@@ -3813,7 +3828,7 @@
         <v>305</v>
       </c>
       <c r="Y12" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="17:25">
@@ -3821,7 +3836,7 @@
         <v>306</v>
       </c>
       <c r="Y13" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="17:25">
@@ -3829,7 +3844,7 @@
         <v>307</v>
       </c>
       <c r="Y14" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="17:25">
@@ -3837,7 +3852,7 @@
         <v>308</v>
       </c>
       <c r="Y15" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="17:25">
@@ -3853,7 +3868,7 @@
         <v>310</v>
       </c>
       <c r="Y17" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="17:25">
@@ -5214,6 +5229,31 @@
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
         <v>582</v>
+      </c>
+    </row>
+    <row r="290" spans="17:17">
+      <c r="Q290" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="291" spans="17:17">
+      <c r="Q291" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="292" spans="17:17">
+      <c r="Q292" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="293" spans="17:17">
+      <c r="Q293" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="294" spans="17:17">
+      <c r="Q294" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
     <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="631">
   <si>
     <t>alias</t>
   </si>
@@ -844,73 +844,73 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Recommended) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_buffer</t>
+    <t>sample storage buffer</t>
   </si>
   <si>
     <t>(Recommended) Buffer used for sample storage (e.g. rnalater)</t>
   </si>
   <si>
-    <t>sample_storage_device</t>
+    <t>sample storage device</t>
   </si>
   <si>
     <t>(Recommended) The container used to store the sample. this field accepts terms listed under container (http://purl.obolibrary.org/obo/ncit_c43186). if the proper descriptor is not listed please use text to describe the storage device.</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>reference_host_genome_for_decontamination</t>
+    <t>reference host genome for decontamination</t>
   </si>
   <si>
     <t>(Mandatory) Reference host genome that was mapped against for host decontamination (in the form of a valid assembly accession - e.g. in the format gca_xxxxxxx.x)</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>trial_length</t>
+    <t>trial length</t>
   </si>
   <si>
     <t>(Recommended) Length of time from the beginning of the trial until the end of the trial (Units: years)</t>
   </si>
   <si>
-    <t>trial_timepoint</t>
+    <t>trial timepoint</t>
   </si>
   <si>
     <t>(Mandatory) Timepoint of the trial when the sample was collected - length of time after the beginning of the trial (Units: years)</t>
@@ -1129,6 +1129,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1147,9 +1150,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1351,9 +1351,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1363,6 +1360,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1402,7 +1402,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1471,9 +1471,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1549,9 +1546,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1573,9 +1567,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1621,9 +1612,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1636,9 +1624,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1648,6 +1633,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1672,9 +1660,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1735,12 +1720,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1798,49 +1783,49 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Recommended) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host_common_name</t>
+    <t>host common name</t>
   </si>
   <si>
     <t>(Mandatory) Common name of the host, e.g. human</t>
   </si>
   <si>
-    <t>host_subject_id</t>
+    <t>host subject id</t>
   </si>
   <si>
     <t>(Mandatory) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
   </si>
   <si>
-    <t>host_taxid</t>
+    <t>host taxid</t>
   </si>
   <si>
     <t>(Mandatory) Ncbi taxon id of the host, e.g. 9606</t>
   </si>
   <si>
-    <t>host_body_site</t>
+    <t>host body site</t>
   </si>
   <si>
     <t>(Mandatory) Name of body site where the sample was obtained from, such as a specific organ or tissue (tongue, lung etc...). for foundational model of anatomy ontology (fma) (v 3.1) terms, please see http://purl.bioontology.org/ontology/fma</t>
   </si>
   <si>
-    <t>host_length</t>
-  </si>
-  <si>
-    <t>(Optional) The length of subject (Units: m)</t>
-  </si>
-  <si>
-    <t>host_total_mass</t>
+    <t>host length</t>
+  </si>
+  <si>
+    <t>(Optional) The length of subject (Units: mm)</t>
+  </si>
+  <si>
+    <t>host total mass</t>
   </si>
   <si>
     <t>(Recommended) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
@@ -1858,79 +1843,79 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host_sex</t>
+    <t>host sex</t>
   </si>
   <si>
     <t>(Optional) Gender or sex of the host.</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Recommended) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>host_breed</t>
+    <t>host breed</t>
   </si>
   <si>
     <t>(Recommended) Breed of the host (e.g. cobb-500)</t>
   </si>
   <si>
-    <t>host_gutted_mass</t>
+    <t>host gutted mass</t>
   </si>
   <si>
     <t>(Optional) Total mass of the host after gutting, the unit depends on host (Units: kg)</t>
   </si>
   <si>
-    <t>host_diet</t>
+    <t>host diet</t>
   </si>
   <si>
     <t>(Recommended) Type of diet depending on the host, for animals omnivore, herbivore etc., for humans high-fat, mediterranean etc.; can include multiple diet types</t>
   </si>
   <si>
-    <t>host_diet_treatment</t>
+    <t>host diet treatment</t>
   </si>
   <si>
     <t>(Mandatory) Experimental diet treatment/additive to normal host feed e.g. probiotic (gallipro epb5)</t>
   </si>
   <si>
-    <t>host_diet_treatment_concentration</t>
+    <t>host diet treatment concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of experimental diet treatment/additive to normal host feed as a percentage of the mass of the feed (e.g. 20%) (Units: % mass)</t>
   </si>
   <si>
-    <t>host_storage_container</t>
+    <t>host storage container</t>
   </si>
   <si>
     <t>(Optional) Storage container that the host organism is kept in before sampling (e.g. cage, water tank, pen) including details of size and type</t>
   </si>
   <si>
-    <t>host_storage_container_ph</t>
+    <t>host storage container pH</t>
   </si>
   <si>
     <t>(Optional) Ph of the medium in which the host organism is kept before sampling (e.g. ph of water in tank)</t>
   </si>
   <si>
-    <t>host_storage_container_temperature</t>
+    <t>host storage container temperature</t>
   </si>
   <si>
     <t>(Recommended) Temperature at which the host is kept before sampling (Units: °C)</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Mandatory) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Mandatory) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -3532,70 +3517,70 @@
         <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="150" customHeight="1">
@@ -3648,70 +3633,70 @@
         <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3729,7 +3714,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="Q1:Y294"/>
+  <dimension ref="Q1:Y289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3740,7 +3725,7 @@
         <v>294</v>
       </c>
       <c r="Y1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="17:25">
@@ -3748,7 +3733,7 @@
         <v>295</v>
       </c>
       <c r="Y2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="17:25">
@@ -3756,7 +3741,7 @@
         <v>296</v>
       </c>
       <c r="Y3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="17:25">
@@ -3764,7 +3749,7 @@
         <v>297</v>
       </c>
       <c r="Y4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="17:25">
@@ -3772,7 +3757,7 @@
         <v>298</v>
       </c>
       <c r="Y5" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="17:25">
@@ -3780,7 +3765,7 @@
         <v>299</v>
       </c>
       <c r="Y6" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="17:25">
@@ -3788,7 +3773,7 @@
         <v>300</v>
       </c>
       <c r="Y7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="17:25">
@@ -3796,7 +3781,7 @@
         <v>301</v>
       </c>
       <c r="Y8" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="17:25">
@@ -3804,7 +3789,7 @@
         <v>302</v>
       </c>
       <c r="Y9" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="17:25">
@@ -3812,7 +3797,7 @@
         <v>303</v>
       </c>
       <c r="Y10" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="17:25">
@@ -3820,7 +3805,7 @@
         <v>304</v>
       </c>
       <c r="Y11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="17:25">
@@ -3828,7 +3813,7 @@
         <v>305</v>
       </c>
       <c r="Y12" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="17:25">
@@ -3836,7 +3821,7 @@
         <v>306</v>
       </c>
       <c r="Y13" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="17:25">
@@ -3844,7 +3829,7 @@
         <v>307</v>
       </c>
       <c r="Y14" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="17:25">
@@ -3852,7 +3837,7 @@
         <v>308</v>
       </c>
       <c r="Y15" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="17:25">
@@ -3868,7 +3853,7 @@
         <v>310</v>
       </c>
       <c r="Y17" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="17:25">
@@ -5229,31 +5214,6 @@
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="290" spans="17:17">
-      <c r="Q290" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="291" spans="17:17">
-      <c r="Q291" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="292" spans="17:17">
-      <c r="Q292" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="293" spans="17:17">
-      <c r="Q293" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="294" spans="17:17">
-      <c r="Q294" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
-    <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
+    <definedName name="hostsex">'cv_sample'!$AA$1:$AA$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="635">
   <si>
     <t>alias</t>
   </si>
@@ -836,6 +836,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3458,7 +3470,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3467,7 +3479,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3517,10 +3529,10 @@
         <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>294</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>587</v>
@@ -3541,10 +3553,10 @@
         <v>597</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>607</v>
@@ -3582,8 +3594,14 @@
       <c r="AL1" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" ht="150" customHeight="1">
+      <c r="AM1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3633,10 +3651,10 @@
         <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>295</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>588</v>
@@ -3657,10 +3675,10 @@
         <v>598</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>608</v>
@@ -3698,13 +3716,19 @@
       <c r="AL2" s="2" t="s">
         <v>630</v>
       </c>
+      <c r="AM2" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>634</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
       <formula1>hostsex</formula1>
     </dataValidation>
   </dataValidations>
@@ -3714,1506 +3738,1506 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="Q1:Y289"/>
+  <dimension ref="S1:AA289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="17:25">
-      <c r="Q1" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="17:25">
-      <c r="Q2" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="17:25">
-      <c r="Q3" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="17:25">
-      <c r="Q4" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y4" t="s">
+    <row r="1" spans="19:27">
+      <c r="S1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="19:27">
+      <c r="S2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="19:27">
+      <c r="S3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="19:27">
+      <c r="S4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="19:27">
+      <c r="S5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="19:27">
+      <c r="S6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="19:27">
+      <c r="S7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="19:27">
+      <c r="S8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="19:27">
+      <c r="S9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="19:27">
+      <c r="S10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="19:27">
+      <c r="S11" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="19:27">
+      <c r="S12" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="19:27">
+      <c r="S13" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="19:27">
+      <c r="S14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="19:27">
+      <c r="S15" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="19:27">
+      <c r="S16" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="19:27">
+      <c r="S17" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="19:27">
+      <c r="S18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="19:27">
+      <c r="S19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="19:27">
+      <c r="S20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="19:27">
+      <c r="S21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="19:27">
+      <c r="S22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="19:27">
+      <c r="S23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="19:27">
+      <c r="S24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="19:27">
+      <c r="S25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="19:27">
+      <c r="S26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="19:27">
+      <c r="S27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="19:27">
+      <c r="S28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="19:27">
+      <c r="S29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="19:27">
+      <c r="S30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="19:27">
+      <c r="S31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="19:27">
+      <c r="S32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="19:19">
+      <c r="S33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="19:19">
+      <c r="S34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="19:19">
+      <c r="S35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="19:19">
+      <c r="S36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="19:19">
+      <c r="S37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="19:19">
+      <c r="S38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="19:19">
+      <c r="S39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="19:19">
+      <c r="S40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="19:19">
+      <c r="S41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="19:19">
+      <c r="S42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="19:19">
+      <c r="S43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="19:19">
+      <c r="S44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="19:19">
+      <c r="S45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="19:19">
+      <c r="S46" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="19:19">
+      <c r="S47" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="19:19">
+      <c r="S48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="19:19">
+      <c r="S49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="19:19">
+      <c r="S50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="19:19">
+      <c r="S51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="19:19">
+      <c r="S52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="19:19">
+      <c r="S53" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="19:19">
+      <c r="S54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="19:19">
+      <c r="S55" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="19:19">
+      <c r="S56" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="19:19">
+      <c r="S57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="19:19">
+      <c r="S58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="19:19">
+      <c r="S59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="19:19">
+      <c r="S60" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="19:19">
+      <c r="S61" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="19:19">
+      <c r="S62" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="19:19">
+      <c r="S63" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="19:19">
+      <c r="S64" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="19:19">
+      <c r="S65" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="19:19">
+      <c r="S66" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67" spans="19:19">
+      <c r="S67" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="19:19">
+      <c r="S68" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="19:19">
+      <c r="S69" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="19:19">
+      <c r="S70" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="19:19">
+      <c r="S71" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="19:19">
+      <c r="S72" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="19:19">
+      <c r="S73" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="19:19">
+      <c r="S74" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="19:19">
+      <c r="S75" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="19:19">
+      <c r="S76" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="19:19">
+      <c r="S77" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="19:19">
+      <c r="S78" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="19:19">
+      <c r="S79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="19:19">
+      <c r="S80" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="19:19">
+      <c r="S81" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="19:19">
+      <c r="S82" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="19:19">
+      <c r="S83" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="84" spans="19:19">
+      <c r="S84" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" spans="19:19">
+      <c r="S85" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="19:19">
+      <c r="S86" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="19:19">
+      <c r="S87" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="19:19">
+      <c r="S88" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="19:19">
+      <c r="S89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="19:19">
+      <c r="S90" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="19:19">
+      <c r="S91" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="92" spans="19:19">
+      <c r="S92" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="93" spans="19:19">
+      <c r="S93" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="94" spans="19:19">
+      <c r="S94" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="95" spans="19:19">
+      <c r="S95" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="19:19">
+      <c r="S96" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="97" spans="19:19">
+      <c r="S97" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="19:19">
+      <c r="S98" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="99" spans="19:19">
+      <c r="S99" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="100" spans="19:19">
+      <c r="S100" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="101" spans="19:19">
+      <c r="S101" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="19:19">
+      <c r="S102" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="19:19">
+      <c r="S103" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="19:19">
+      <c r="S104" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="105" spans="19:19">
+      <c r="S105" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="19:19">
+      <c r="S106" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="107" spans="19:19">
+      <c r="S107" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="108" spans="19:19">
+      <c r="S108" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="109" spans="19:19">
+      <c r="S109" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="19:19">
+      <c r="S110" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="19:19">
+      <c r="S111" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="19:19">
+      <c r="S112" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="113" spans="19:19">
+      <c r="S113" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="114" spans="19:19">
+      <c r="S114" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="115" spans="19:19">
+      <c r="S115" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="19:19">
+      <c r="S116" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="117" spans="19:19">
+      <c r="S117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="19:19">
+      <c r="S118" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="119" spans="19:19">
+      <c r="S119" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="120" spans="19:19">
+      <c r="S120" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="121" spans="19:19">
+      <c r="S121" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="19:19">
+      <c r="S122" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="123" spans="19:19">
+      <c r="S123" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="19:19">
+      <c r="S124" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="125" spans="19:19">
+      <c r="S125" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="126" spans="19:19">
+      <c r="S126" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="127" spans="19:19">
+      <c r="S127" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="128" spans="19:19">
+      <c r="S128" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="129" spans="19:19">
+      <c r="S129" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="130" spans="19:19">
+      <c r="S130" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="131" spans="19:19">
+      <c r="S131" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="132" spans="19:19">
+      <c r="S132" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="133" spans="19:19">
+      <c r="S133" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="134" spans="19:19">
+      <c r="S134" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="135" spans="19:19">
+      <c r="S135" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="136" spans="19:19">
+      <c r="S136" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="137" spans="19:19">
+      <c r="S137" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="138" spans="19:19">
+      <c r="S138" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" spans="19:19">
+      <c r="S139" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="140" spans="19:19">
+      <c r="S140" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="141" spans="19:19">
+      <c r="S141" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="142" spans="19:19">
+      <c r="S142" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" spans="19:19">
+      <c r="S143" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="144" spans="19:19">
+      <c r="S144" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="145" spans="19:19">
+      <c r="S145" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="146" spans="19:19">
+      <c r="S146" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="19:19">
+      <c r="S147" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="148" spans="19:19">
+      <c r="S148" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="19:19">
+      <c r="S149" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="19:19">
+      <c r="S150" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="151" spans="19:19">
+      <c r="S151" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="152" spans="19:19">
+      <c r="S152" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="153" spans="19:19">
+      <c r="S153" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="154" spans="19:19">
+      <c r="S154" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="155" spans="19:19">
+      <c r="S155" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="156" spans="19:19">
+      <c r="S156" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="157" spans="19:19">
+      <c r="S157" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="158" spans="19:19">
+      <c r="S158" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="159" spans="19:19">
+      <c r="S159" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="160" spans="19:19">
+      <c r="S160" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="161" spans="19:19">
+      <c r="S161" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="162" spans="19:19">
+      <c r="S162" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="163" spans="19:19">
+      <c r="S163" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="164" spans="19:19">
+      <c r="S164" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="165" spans="19:19">
+      <c r="S165" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="166" spans="19:19">
+      <c r="S166" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="167" spans="19:19">
+      <c r="S167" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="168" spans="19:19">
+      <c r="S168" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="169" spans="19:19">
+      <c r="S169" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="170" spans="19:19">
+      <c r="S170" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="171" spans="19:19">
+      <c r="S171" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="172" spans="19:19">
+      <c r="S172" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="173" spans="19:19">
+      <c r="S173" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="174" spans="19:19">
+      <c r="S174" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="175" spans="19:19">
+      <c r="S175" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="176" spans="19:19">
+      <c r="S176" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="177" spans="19:19">
+      <c r="S177" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="178" spans="19:19">
+      <c r="S178" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="179" spans="19:19">
+      <c r="S179" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="180" spans="19:19">
+      <c r="S180" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="181" spans="19:19">
+      <c r="S181" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="182" spans="19:19">
+      <c r="S182" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="183" spans="19:19">
+      <c r="S183" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="184" spans="19:19">
+      <c r="S184" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="185" spans="19:19">
+      <c r="S185" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="186" spans="19:19">
+      <c r="S186" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="187" spans="19:19">
+      <c r="S187" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="188" spans="19:19">
+      <c r="S188" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="189" spans="19:19">
+      <c r="S189" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="190" spans="19:19">
+      <c r="S190" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="191" spans="19:19">
+      <c r="S191" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="192" spans="19:19">
+      <c r="S192" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="193" spans="19:19">
+      <c r="S193" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="194" spans="19:19">
+      <c r="S194" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="195" spans="19:19">
+      <c r="S195" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="196" spans="19:19">
+      <c r="S196" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="197" spans="19:19">
+      <c r="S197" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="198" spans="19:19">
+      <c r="S198" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="199" spans="19:19">
+      <c r="S199" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="200" spans="19:19">
+      <c r="S200" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="201" spans="19:19">
+      <c r="S201" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="202" spans="19:19">
+      <c r="S202" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="203" spans="19:19">
+      <c r="S203" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="19:19">
+      <c r="S204" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="205" spans="19:19">
+      <c r="S205" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="206" spans="19:19">
+      <c r="S206" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="207" spans="19:19">
+      <c r="S207" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="208" spans="19:19">
+      <c r="S208" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="209" spans="19:19">
+      <c r="S209" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="210" spans="19:19">
+      <c r="S210" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="211" spans="19:19">
+      <c r="S211" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="212" spans="19:19">
+      <c r="S212" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="213" spans="19:19">
+      <c r="S213" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="214" spans="19:19">
+      <c r="S214" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="215" spans="19:19">
+      <c r="S215" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="216" spans="19:19">
+      <c r="S216" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="217" spans="19:19">
+      <c r="S217" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="218" spans="19:19">
+      <c r="S218" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="219" spans="19:19">
+      <c r="S219" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="220" spans="19:19">
+      <c r="S220" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="221" spans="19:19">
+      <c r="S221" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="222" spans="19:19">
+      <c r="S222" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="223" spans="19:19">
+      <c r="S223" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="224" spans="19:19">
+      <c r="S224" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="225" spans="19:19">
+      <c r="S225" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="226" spans="19:19">
+      <c r="S226" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="227" spans="19:19">
+      <c r="S227" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="228" spans="19:19">
+      <c r="S228" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="229" spans="19:19">
+      <c r="S229" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="230" spans="19:19">
+      <c r="S230" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="231" spans="19:19">
+      <c r="S231" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="232" spans="19:19">
+      <c r="S232" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="233" spans="19:19">
+      <c r="S233" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="234" spans="19:19">
+      <c r="S234" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="235" spans="19:19">
+      <c r="S235" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="236" spans="19:19">
+      <c r="S236" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="237" spans="19:19">
+      <c r="S237" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="238" spans="19:19">
+      <c r="S238" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="239" spans="19:19">
+      <c r="S239" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="240" spans="19:19">
+      <c r="S240" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="241" spans="19:19">
+      <c r="S241" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="242" spans="19:19">
+      <c r="S242" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="243" spans="19:19">
+      <c r="S243" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="244" spans="19:19">
+      <c r="S244" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="245" spans="19:19">
+      <c r="S245" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="246" spans="19:19">
+      <c r="S246" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="247" spans="19:19">
+      <c r="S247" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="248" spans="19:19">
+      <c r="S248" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="249" spans="19:19">
+      <c r="S249" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="250" spans="19:19">
+      <c r="S250" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="251" spans="19:19">
+      <c r="S251" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="252" spans="19:19">
+      <c r="S252" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="253" spans="19:19">
+      <c r="S253" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="254" spans="19:19">
+      <c r="S254" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="255" spans="19:19">
+      <c r="S255" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="256" spans="19:19">
+      <c r="S256" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="257" spans="19:19">
+      <c r="S257" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="258" spans="19:19">
+      <c r="S258" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="259" spans="19:19">
+      <c r="S259" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="260" spans="19:19">
+      <c r="S260" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="261" spans="19:19">
+      <c r="S261" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="262" spans="19:19">
+      <c r="S262" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="263" spans="19:19">
+      <c r="S263" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="264" spans="19:19">
+      <c r="S264" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="265" spans="19:19">
+      <c r="S265" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="266" spans="19:19">
+      <c r="S266" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="267" spans="19:19">
+      <c r="S267" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="268" spans="19:19">
+      <c r="S268" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="269" spans="19:19">
+      <c r="S269" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="270" spans="19:19">
+      <c r="S270" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="271" spans="19:19">
+      <c r="S271" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="272" spans="19:19">
+      <c r="S272" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="273" spans="19:19">
+      <c r="S273" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="274" spans="19:19">
+      <c r="S274" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="17:25">
-      <c r="Q5" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y5" t="s">
+    <row r="275" spans="19:19">
+      <c r="S275" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="6" spans="17:25">
-      <c r="Q6" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y6" t="s">
+    <row r="276" spans="19:19">
+      <c r="S276" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="17:25">
-      <c r="Q7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y7" t="s">
+    <row r="277" spans="19:19">
+      <c r="S277" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="17:25">
-      <c r="Q8" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y8" t="s">
+    <row r="278" spans="19:19">
+      <c r="S278" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="9" spans="17:25">
-      <c r="Q9" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y9" t="s">
+    <row r="279" spans="19:19">
+      <c r="S279" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="17:25">
-      <c r="Q10" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y10" t="s">
+    <row r="280" spans="19:19">
+      <c r="S280" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="11" spans="17:25">
-      <c r="Q11" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y11" t="s">
+    <row r="281" spans="19:19">
+      <c r="S281" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="17:25">
-      <c r="Q12" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="13" spans="17:25">
-      <c r="Q13" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y13" t="s">
+    <row r="282" spans="19:19">
+      <c r="S282" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="14" spans="17:25">
-      <c r="Q14" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y14" t="s">
+    <row r="283" spans="19:19">
+      <c r="S283" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="17:25">
-      <c r="Q15" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y15" t="s">
+    <row r="284" spans="19:19">
+      <c r="S284" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="16" spans="17:25">
-      <c r="Q16" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="17:25">
-      <c r="Q17" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y17" t="s">
+    <row r="285" spans="19:19">
+      <c r="S285" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="17:25">
-      <c r="Q18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="17:25">
-      <c r="Q19" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="17:25">
-      <c r="Q20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="17:25">
-      <c r="Q21" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="17:25">
-      <c r="Q22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="17:25">
-      <c r="Q23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="17:25">
-      <c r="Q24" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="25" spans="17:25">
-      <c r="Q25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="17:25">
-      <c r="Q26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="17:25">
-      <c r="Q27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="17:25">
-      <c r="Q28" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="17:25">
-      <c r="Q29" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="30" spans="17:25">
-      <c r="Q30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="17:25">
-      <c r="Q31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="17:25">
-      <c r="Q32" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="33" spans="17:17">
-      <c r="Q33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="34" spans="17:17">
-      <c r="Q34" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="17:17">
-      <c r="Q35" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="36" spans="17:17">
-      <c r="Q36" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="37" spans="17:17">
-      <c r="Q37" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" spans="17:17">
-      <c r="Q38" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="39" spans="17:17">
-      <c r="Q39" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="17:17">
-      <c r="Q40" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="17:17">
-      <c r="Q41" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="17:17">
-      <c r="Q42" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="43" spans="17:17">
-      <c r="Q43" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="44" spans="17:17">
-      <c r="Q44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="17:17">
-      <c r="Q45" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="46" spans="17:17">
-      <c r="Q46" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="17:17">
-      <c r="Q47" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="48" spans="17:17">
-      <c r="Q48" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="49" spans="17:17">
-      <c r="Q49" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="50" spans="17:17">
-      <c r="Q50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="51" spans="17:17">
-      <c r="Q51" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="52" spans="17:17">
-      <c r="Q52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="53" spans="17:17">
-      <c r="Q53" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="54" spans="17:17">
-      <c r="Q54" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="55" spans="17:17">
-      <c r="Q55" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="56" spans="17:17">
-      <c r="Q56" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="17:17">
-      <c r="Q57" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="58" spans="17:17">
-      <c r="Q58" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="59" spans="17:17">
-      <c r="Q59" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="17:17">
-      <c r="Q60" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="17:17">
-      <c r="Q61" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="17:17">
-      <c r="Q62" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="63" spans="17:17">
-      <c r="Q63" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="64" spans="17:17">
-      <c r="Q64" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="65" spans="17:17">
-      <c r="Q65" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="66" spans="17:17">
-      <c r="Q66" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="67" spans="17:17">
-      <c r="Q67" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="68" spans="17:17">
-      <c r="Q68" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="69" spans="17:17">
-      <c r="Q69" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="70" spans="17:17">
-      <c r="Q70" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="71" spans="17:17">
-      <c r="Q71" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="72" spans="17:17">
-      <c r="Q72" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="73" spans="17:17">
-      <c r="Q73" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="74" spans="17:17">
-      <c r="Q74" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="75" spans="17:17">
-      <c r="Q75" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="76" spans="17:17">
-      <c r="Q76" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="77" spans="17:17">
-      <c r="Q77" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="17:17">
-      <c r="Q78" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="79" spans="17:17">
-      <c r="Q79" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="80" spans="17:17">
-      <c r="Q80" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="81" spans="17:17">
-      <c r="Q81" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="82" spans="17:17">
-      <c r="Q82" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="83" spans="17:17">
-      <c r="Q83" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="84" spans="17:17">
-      <c r="Q84" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="85" spans="17:17">
-      <c r="Q85" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="86" spans="17:17">
-      <c r="Q86" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="17:17">
-      <c r="Q87" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="88" spans="17:17">
-      <c r="Q88" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="89" spans="17:17">
-      <c r="Q89" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="90" spans="17:17">
-      <c r="Q90" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="91" spans="17:17">
-      <c r="Q91" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="92" spans="17:17">
-      <c r="Q92" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="93" spans="17:17">
-      <c r="Q93" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="94" spans="17:17">
-      <c r="Q94" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="95" spans="17:17">
-      <c r="Q95" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="96" spans="17:17">
-      <c r="Q96" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="97" spans="17:17">
-      <c r="Q97" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="98" spans="17:17">
-      <c r="Q98" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="99" spans="17:17">
-      <c r="Q99" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="100" spans="17:17">
-      <c r="Q100" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="101" spans="17:17">
-      <c r="Q101" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="102" spans="17:17">
-      <c r="Q102" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="103" spans="17:17">
-      <c r="Q103" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="104" spans="17:17">
-      <c r="Q104" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="105" spans="17:17">
-      <c r="Q105" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="106" spans="17:17">
-      <c r="Q106" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="107" spans="17:17">
-      <c r="Q107" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="108" spans="17:17">
-      <c r="Q108" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="109" spans="17:17">
-      <c r="Q109" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="110" spans="17:17">
-      <c r="Q110" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="111" spans="17:17">
-      <c r="Q111" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="112" spans="17:17">
-      <c r="Q112" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="113" spans="17:17">
-      <c r="Q113" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="114" spans="17:17">
-      <c r="Q114" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="115" spans="17:17">
-      <c r="Q115" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="116" spans="17:17">
-      <c r="Q116" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="117" spans="17:17">
-      <c r="Q117" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="118" spans="17:17">
-      <c r="Q118" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="119" spans="17:17">
-      <c r="Q119" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="120" spans="17:17">
-      <c r="Q120" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="121" spans="17:17">
-      <c r="Q121" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="122" spans="17:17">
-      <c r="Q122" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="123" spans="17:17">
-      <c r="Q123" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="124" spans="17:17">
-      <c r="Q124" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="125" spans="17:17">
-      <c r="Q125" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="126" spans="17:17">
-      <c r="Q126" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="127" spans="17:17">
-      <c r="Q127" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="128" spans="17:17">
-      <c r="Q128" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="129" spans="17:17">
-      <c r="Q129" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="130" spans="17:17">
-      <c r="Q130" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="131" spans="17:17">
-      <c r="Q131" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="132" spans="17:17">
-      <c r="Q132" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="133" spans="17:17">
-      <c r="Q133" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="134" spans="17:17">
-      <c r="Q134" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="135" spans="17:17">
-      <c r="Q135" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="136" spans="17:17">
-      <c r="Q136" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="137" spans="17:17">
-      <c r="Q137" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="138" spans="17:17">
-      <c r="Q138" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="139" spans="17:17">
-      <c r="Q139" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="140" spans="17:17">
-      <c r="Q140" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="141" spans="17:17">
-      <c r="Q141" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="142" spans="17:17">
-      <c r="Q142" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="143" spans="17:17">
-      <c r="Q143" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="144" spans="17:17">
-      <c r="Q144" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="145" spans="17:17">
-      <c r="Q145" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="146" spans="17:17">
-      <c r="Q146" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="147" spans="17:17">
-      <c r="Q147" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="148" spans="17:17">
-      <c r="Q148" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="149" spans="17:17">
-      <c r="Q149" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="150" spans="17:17">
-      <c r="Q150" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="151" spans="17:17">
-      <c r="Q151" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="152" spans="17:17">
-      <c r="Q152" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="153" spans="17:17">
-      <c r="Q153" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="154" spans="17:17">
-      <c r="Q154" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="155" spans="17:17">
-      <c r="Q155" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="156" spans="17:17">
-      <c r="Q156" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="157" spans="17:17">
-      <c r="Q157" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="158" spans="17:17">
-      <c r="Q158" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="159" spans="17:17">
-      <c r="Q159" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="160" spans="17:17">
-      <c r="Q160" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="161" spans="17:17">
-      <c r="Q161" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="162" spans="17:17">
-      <c r="Q162" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="163" spans="17:17">
-      <c r="Q163" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="164" spans="17:17">
-      <c r="Q164" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="165" spans="17:17">
-      <c r="Q165" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="166" spans="17:17">
-      <c r="Q166" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="167" spans="17:17">
-      <c r="Q167" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="168" spans="17:17">
-      <c r="Q168" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="169" spans="17:17">
-      <c r="Q169" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="170" spans="17:17">
-      <c r="Q170" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="171" spans="17:17">
-      <c r="Q171" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="172" spans="17:17">
-      <c r="Q172" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="173" spans="17:17">
-      <c r="Q173" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="174" spans="17:17">
-      <c r="Q174" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="175" spans="17:17">
-      <c r="Q175" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="176" spans="17:17">
-      <c r="Q176" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="177" spans="17:17">
-      <c r="Q177" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="178" spans="17:17">
-      <c r="Q178" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="179" spans="17:17">
-      <c r="Q179" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="180" spans="17:17">
-      <c r="Q180" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="181" spans="17:17">
-      <c r="Q181" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="182" spans="17:17">
-      <c r="Q182" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="183" spans="17:17">
-      <c r="Q183" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="184" spans="17:17">
-      <c r="Q184" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="185" spans="17:17">
-      <c r="Q185" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="186" spans="17:17">
-      <c r="Q186" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="187" spans="17:17">
-      <c r="Q187" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="188" spans="17:17">
-      <c r="Q188" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="189" spans="17:17">
-      <c r="Q189" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="190" spans="17:17">
-      <c r="Q190" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="191" spans="17:17">
-      <c r="Q191" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="192" spans="17:17">
-      <c r="Q192" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="193" spans="17:17">
-      <c r="Q193" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="194" spans="17:17">
-      <c r="Q194" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="195" spans="17:17">
-      <c r="Q195" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="196" spans="17:17">
-      <c r="Q196" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="197" spans="17:17">
-      <c r="Q197" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="198" spans="17:17">
-      <c r="Q198" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="199" spans="17:17">
-      <c r="Q199" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="200" spans="17:17">
-      <c r="Q200" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="201" spans="17:17">
-      <c r="Q201" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="202" spans="17:17">
-      <c r="Q202" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="203" spans="17:17">
-      <c r="Q203" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="204" spans="17:17">
-      <c r="Q204" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="205" spans="17:17">
-      <c r="Q205" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="206" spans="17:17">
-      <c r="Q206" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="207" spans="17:17">
-      <c r="Q207" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="208" spans="17:17">
-      <c r="Q208" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="209" spans="17:17">
-      <c r="Q209" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="210" spans="17:17">
-      <c r="Q210" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="211" spans="17:17">
-      <c r="Q211" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="212" spans="17:17">
-      <c r="Q212" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="213" spans="17:17">
-      <c r="Q213" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="214" spans="17:17">
-      <c r="Q214" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="215" spans="17:17">
-      <c r="Q215" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="216" spans="17:17">
-      <c r="Q216" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="217" spans="17:17">
-      <c r="Q217" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="218" spans="17:17">
-      <c r="Q218" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="219" spans="17:17">
-      <c r="Q219" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="220" spans="17:17">
-      <c r="Q220" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="221" spans="17:17">
-      <c r="Q221" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="222" spans="17:17">
-      <c r="Q222" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="223" spans="17:17">
-      <c r="Q223" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="224" spans="17:17">
-      <c r="Q224" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="225" spans="17:17">
-      <c r="Q225" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="226" spans="17:17">
-      <c r="Q226" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="227" spans="17:17">
-      <c r="Q227" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="228" spans="17:17">
-      <c r="Q228" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="229" spans="17:17">
-      <c r="Q229" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="230" spans="17:17">
-      <c r="Q230" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="231" spans="17:17">
-      <c r="Q231" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="232" spans="17:17">
-      <c r="Q232" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="233" spans="17:17">
-      <c r="Q233" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="234" spans="17:17">
-      <c r="Q234" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="235" spans="17:17">
-      <c r="Q235" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="236" spans="17:17">
-      <c r="Q236" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="237" spans="17:17">
-      <c r="Q237" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="238" spans="17:17">
-      <c r="Q238" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="239" spans="17:17">
-      <c r="Q239" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="240" spans="17:17">
-      <c r="Q240" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="241" spans="17:17">
-      <c r="Q241" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="242" spans="17:17">
-      <c r="Q242" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="243" spans="17:17">
-      <c r="Q243" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="244" spans="17:17">
-      <c r="Q244" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="245" spans="17:17">
-      <c r="Q245" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="246" spans="17:17">
-      <c r="Q246" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="247" spans="17:17">
-      <c r="Q247" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="248" spans="17:17">
-      <c r="Q248" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="249" spans="17:17">
-      <c r="Q249" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="250" spans="17:17">
-      <c r="Q250" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="251" spans="17:17">
-      <c r="Q251" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="252" spans="17:17">
-      <c r="Q252" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="253" spans="17:17">
-      <c r="Q253" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="254" spans="17:17">
-      <c r="Q254" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="255" spans="17:17">
-      <c r="Q255" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="256" spans="17:17">
-      <c r="Q256" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="257" spans="17:17">
-      <c r="Q257" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="258" spans="17:17">
-      <c r="Q258" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="259" spans="17:17">
-      <c r="Q259" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="260" spans="17:17">
-      <c r="Q260" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="261" spans="17:17">
-      <c r="Q261" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="262" spans="17:17">
-      <c r="Q262" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="263" spans="17:17">
-      <c r="Q263" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="264" spans="17:17">
-      <c r="Q264" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="265" spans="17:17">
-      <c r="Q265" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="266" spans="17:17">
-      <c r="Q266" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="267" spans="17:17">
-      <c r="Q267" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="268" spans="17:17">
-      <c r="Q268" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="269" spans="17:17">
-      <c r="Q269" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="270" spans="17:17">
-      <c r="Q270" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="271" spans="17:17">
-      <c r="Q271" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="272" spans="17:17">
-      <c r="Q272" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="273" spans="17:17">
-      <c r="Q273" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="274" spans="17:17">
-      <c r="Q274" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="275" spans="17:17">
-      <c r="Q275" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="276" spans="17:17">
-      <c r="Q276" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="277" spans="17:17">
-      <c r="Q277" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="278" spans="17:17">
-      <c r="Q278" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="279" spans="17:17">
-      <c r="Q279" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="280" spans="17:17">
-      <c r="Q280" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="281" spans="17:17">
-      <c r="Q281" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="282" spans="17:17">
-      <c r="Q282" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="283" spans="17:17">
-      <c r="Q283" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="284" spans="17:17">
-      <c r="Q284" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="285" spans="17:17">
-      <c r="Q285" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="286" spans="17:17">
-      <c r="Q286" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="287" spans="17:17">
-      <c r="Q287" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="288" spans="17:17">
-      <c r="Q288" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="289" spans="17:17">
-      <c r="Q289" t="s">
-        <v>582</v>
+    <row r="286" spans="19:19">
+      <c r="S286" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="287" spans="19:19">
+      <c r="S287" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="288" spans="19:19">
+      <c r="S288" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="289" spans="19:19">
+      <c r="S289" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$294</definedName>
     <definedName name="hostsex">'cv_sample'!$AA$1:$AA$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="640">
   <si>
     <t>alias</t>
   </si>
@@ -919,13 +919,13 @@
     <t>trial length</t>
   </si>
   <si>
-    <t>(Recommended) Length of time from the beginning of the trial until the end of the trial (Units: years)</t>
+    <t>(Recommended) Length of time from the beginning of the trial until the end of the trial (Units: hours, weeks, minutes, days, years)</t>
   </si>
   <si>
     <t>trial timepoint</t>
   </si>
   <si>
-    <t>(Mandatory) Timepoint of the trial when the sample was collected - length of time after the beginning of the trial (Units: years)</t>
+    <t>(Mandatory) Timepoint of the trial when the sample was collected - length of time after the beginning of the trial (Units: hours, weeks, minutes, days, years)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1141,9 +1141,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1162,6 +1159,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1363,6 +1363,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1372,9 +1375,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1414,7 +1414,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1483,6 +1483,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1558,6 +1561,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1579,6 +1585,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1624,6 +1633,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1636,6 +1648,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1645,9 +1660,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1672,6 +1684,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1732,12 +1747,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1834,13 +1849,13 @@
     <t>host length</t>
   </si>
   <si>
-    <t>(Optional) The length of subject (Units: mm)</t>
+    <t>(Optional) The length of subject (Units: mm, cm, m)</t>
   </si>
   <si>
     <t>host total mass</t>
   </si>
   <si>
-    <t>(Recommended) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
+    <t>(Recommended) Total mass of the host at collection, the unit depends on host (Units: g, kg)</t>
   </si>
   <si>
     <t>female</t>
@@ -1876,7 +1891,7 @@
     <t>host gutted mass</t>
   </si>
   <si>
-    <t>(Optional) Total mass of the host after gutting, the unit depends on host (Units: kg)</t>
+    <t>(Optional) Total mass of the host after gutting, the unit depends on host (Units: g, kg)</t>
   </si>
   <si>
     <t>host diet</t>
@@ -1918,7 +1933,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Mandatory) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Mandatory) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -3535,70 +3550,70 @@
         <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
@@ -3657,70 +3672,70 @@
         <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -3738,7 +3753,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="S1:AA289"/>
+  <dimension ref="S1:AA294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3749,7 +3764,7 @@
         <v>298</v>
       </c>
       <c r="AA1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="19:27">
@@ -3757,7 +3772,7 @@
         <v>299</v>
       </c>
       <c r="AA2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="19:27">
@@ -3765,7 +3780,7 @@
         <v>300</v>
       </c>
       <c r="AA3" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="19:27">
@@ -3773,7 +3788,7 @@
         <v>301</v>
       </c>
       <c r="AA4" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="19:27">
@@ -3781,7 +3796,7 @@
         <v>302</v>
       </c>
       <c r="AA5" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="19:27">
@@ -3789,7 +3804,7 @@
         <v>303</v>
       </c>
       <c r="AA6" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="19:27">
@@ -3797,7 +3812,7 @@
         <v>304</v>
       </c>
       <c r="AA7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="19:27">
@@ -3805,7 +3820,7 @@
         <v>305</v>
       </c>
       <c r="AA8" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="19:27">
@@ -3813,7 +3828,7 @@
         <v>306</v>
       </c>
       <c r="AA9" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="19:27">
@@ -3821,7 +3836,7 @@
         <v>307</v>
       </c>
       <c r="AA10" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="19:27">
@@ -3829,7 +3844,7 @@
         <v>308</v>
       </c>
       <c r="AA11" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="19:27">
@@ -3837,7 +3852,7 @@
         <v>309</v>
       </c>
       <c r="AA12" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="19:27">
@@ -3845,7 +3860,7 @@
         <v>310</v>
       </c>
       <c r="AA13" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="19:27">
@@ -3853,7 +3868,7 @@
         <v>311</v>
       </c>
       <c r="AA14" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="19:27">
@@ -3861,7 +3876,7 @@
         <v>312</v>
       </c>
       <c r="AA15" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="19:27">
@@ -3877,7 +3892,7 @@
         <v>314</v>
       </c>
       <c r="AA17" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="19:27">
@@ -5238,6 +5253,31 @@
     <row r="289" spans="19:19">
       <c r="S289" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="290" spans="19:19">
+      <c r="S290" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="291" spans="19:19">
+      <c r="S291" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="292" spans="19:19">
+      <c r="S292" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="293" spans="19:19">
+      <c r="S293" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="294" spans="19:19">
+      <c r="S294" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000052/metadata_template_ERC000052.xlsx
+++ b/templates/ERC000052/metadata_template_ERC000052.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$294</definedName>
     <definedName name="hostsex">'cv_sample'!$AA$1:$AA$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="640">
   <si>
     <t>alias</t>
   </si>
@@ -1141,9 +1141,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1162,6 +1159,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1363,6 +1363,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1372,9 +1375,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1414,7 +1414,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1483,6 +1483,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1558,6 +1561,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1579,6 +1585,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1624,6 +1633,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1636,6 +1648,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1645,9 +1660,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1672,6 +1684,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1732,12 +1747,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1834,7 +1849,7 @@
     <t>host length</t>
   </si>
   <si>
-    <t>(Optional) The length of subject (Units: mm)</t>
+    <t>(Optional) The length of subject (Units: m)</t>
   </si>
   <si>
     <t>host total mass</t>
@@ -1918,7 +1933,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Mandatory) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Mandatory) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -3535,70 +3550,70 @@
         <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
@@ -3657,70 +3672,70 @@
         <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -3738,7 +3753,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="S1:AA289"/>
+  <dimension ref="S1:AA294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3749,7 +3764,7 @@
         <v>298</v>
       </c>
       <c r="AA1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="19:27">
@@ -3757,7 +3772,7 @@
         <v>299</v>
       </c>
       <c r="AA2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="19:27">
@@ -3765,7 +3780,7 @@
         <v>300</v>
       </c>
       <c r="AA3" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="19:27">
@@ -3773,7 +3788,7 @@
         <v>301</v>
       </c>
       <c r="AA4" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="19:27">
@@ -3781,7 +3796,7 @@
         <v>302</v>
       </c>
       <c r="AA5" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="19:27">
@@ -3789,7 +3804,7 @@
         <v>303</v>
       </c>
       <c r="AA6" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="19:27">
@@ -3797,7 +3812,7 @@
         <v>304</v>
       </c>
       <c r="AA7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="19:27">
@@ -3805,7 +3820,7 @@
         <v>305</v>
       </c>
       <c r="AA8" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="19:27">
@@ -3813,7 +3828,7 @@
         <v>306</v>
       </c>
       <c r="AA9" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="19:27">
@@ -3821,7 +3836,7 @@
         <v>307</v>
       </c>
       <c r="AA10" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="19:27">
@@ -3829,7 +3844,7 @@
         <v>308</v>
       </c>
       <c r="AA11" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="19:27">
@@ -3837,7 +3852,7 @@
         <v>309</v>
       </c>
       <c r="AA12" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="19:27">
@@ -3845,7 +3860,7 @@
         <v>310</v>
       </c>
       <c r="AA13" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="19:27">
@@ -3853,7 +3868,7 @@
         <v>311</v>
       </c>
       <c r="AA14" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="19:27">
@@ -3861,7 +3876,7 @@
         <v>312</v>
       </c>
       <c r="AA15" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="19:27">
@@ -3877,7 +3892,7 @@
         <v>314</v>
       </c>
       <c r="AA17" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="19:27">
@@ -5238,6 +5253,31 @@
     <row r="289" spans="19:19">
       <c r="S289" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="290" spans="19:19">
+      <c r="S290" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="291" spans="19:19">
+      <c r="S291" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="292" spans="19:19">
+      <c r="S292" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="293" spans="19:19">
+      <c r="S293" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="294" spans="19:19">
+      <c r="S294" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
